--- a/DownloadDataForDK/ModelData/Final_Dataset/GeneratorsVariables.xlsx
+++ b/DownloadDataForDK/ModelData/Final_Dataset/GeneratorsVariables.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="587" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="503" uniqueCount="122">
   <si>
     <t>FuelMix/id</t>
   </si>
@@ -169,21 +169,6 @@
     <t>DK1_SmallDecentral_BP_Waste</t>
   </si>
   <si>
-    <t>DK1_nan_CD_Biogas</t>
-  </si>
-  <si>
-    <t>DK1_nan_IndustryE_Biogas</t>
-  </si>
-  <si>
-    <t>DK1_nan_IndustryE_Biomass</t>
-  </si>
-  <si>
-    <t>DK1_nan_IndustryE_Natgas</t>
-  </si>
-  <si>
-    <t>DK1_nan_IndustryE_Oil</t>
-  </si>
-  <si>
     <t>DK2_Central_BH_Biogas</t>
   </si>
   <si>
@@ -271,21 +256,6 @@
     <t>DK2_SmallDecentral_BH_Waste</t>
   </si>
   <si>
-    <t>DK2_nan_CD_Biogas</t>
-  </si>
-  <si>
-    <t>DK2_nan_IndustryE_Biogas</t>
-  </si>
-  <si>
-    <t>DK2_nan_CD_Coal</t>
-  </si>
-  <si>
-    <t>DK2_nan_IndustryE_Natgas</t>
-  </si>
-  <si>
-    <t>DK2_nan_CD_Oil</t>
-  </si>
-  <si>
     <t>Biogas</t>
   </si>
   <si>
@@ -307,42 +277,9 @@
     <t>inf</t>
   </si>
   <si>
-    <t>DK1_nan_CD_Natgas</t>
-  </si>
-  <si>
-    <t>DK1_nan_CD_Oil</t>
-  </si>
-  <si>
-    <t>DK1_nan_PV</t>
-  </si>
-  <si>
-    <t>DK1_nan_ROR</t>
-  </si>
-  <si>
-    <t>DK1_nan_WL</t>
-  </si>
-  <si>
-    <t>DK1_nan_WS</t>
-  </si>
-  <si>
     <t>DK2_SmallDecentral_BP_Oil</t>
   </si>
   <si>
-    <t>DK2_nan_CD_Natgas</t>
-  </si>
-  <si>
-    <t>DK2_nan_IndustryE_Oil</t>
-  </si>
-  <si>
-    <t>DK2_nan_PV</t>
-  </si>
-  <si>
-    <t>DK2_nan_WL</t>
-  </si>
-  <si>
-    <t>DK2_nan_WS</t>
-  </si>
-  <si>
     <t>DK1_Central_IndustryH_Natgas</t>
   </si>
   <si>
@@ -391,6 +328,45 @@
     <t>DK1_SmallDecentral_HPstandard</t>
   </si>
   <si>
+    <t>DK2_Central_HPstandard</t>
+  </si>
+  <si>
+    <t>DK2_Central_HPsurplusheat</t>
+  </si>
+  <si>
+    <t>DK2_Central_IH</t>
+  </si>
+  <si>
+    <t>DK2_Central_IndustryH</t>
+  </si>
+  <si>
+    <t>DK2_Central_SH</t>
+  </si>
+  <si>
+    <t>DK2_LargeDecentral_HPstandard</t>
+  </si>
+  <si>
+    <t>DK2_LargeDecentral_HPsurplusheat</t>
+  </si>
+  <si>
+    <t>DK2_LargeDecentral_IH</t>
+  </si>
+  <si>
+    <t>DK2_LargeDecentral_IndustryH</t>
+  </si>
+  <si>
+    <t>DK2_LargeDecentral_SH</t>
+  </si>
+  <si>
+    <t>DK2_SmallDecentral_HPstandard</t>
+  </si>
+  <si>
+    <t>DK2_SmallDecentral_IH</t>
+  </si>
+  <si>
+    <t>DK2_SmallDecentral_IndustryH</t>
+  </si>
+  <si>
     <t>DK1_SmallDecentral_HPsurplusheat</t>
   </si>
   <si>
@@ -401,45 +377,6 @@
   </si>
   <si>
     <t>DK1_SmallDecentral_SH</t>
-  </si>
-  <si>
-    <t>DK2_Central_HPstandard</t>
-  </si>
-  <si>
-    <t>DK2_Central_HPsurplusheat</t>
-  </si>
-  <si>
-    <t>DK2_Central_IH</t>
-  </si>
-  <si>
-    <t>DK2_Central_IndustryH</t>
-  </si>
-  <si>
-    <t>DK2_Central_SH</t>
-  </si>
-  <si>
-    <t>DK2_LargeDecentral_HPstandard</t>
-  </si>
-  <si>
-    <t>DK2_LargeDecentral_HPsurplusheat</t>
-  </si>
-  <si>
-    <t>DK2_LargeDecentral_IH</t>
-  </si>
-  <si>
-    <t>DK2_LargeDecentral_IndustryH</t>
-  </si>
-  <si>
-    <t>DK2_LargeDecentral_SH</t>
-  </si>
-  <si>
-    <t>DK2_SmallDecentral_HPstandard</t>
-  </si>
-  <si>
-    <t>DK2_SmallDecentral_IH</t>
-  </si>
-  <si>
-    <t>DK2_SmallDecentral_IndustryH</t>
   </si>
   <si>
     <t>DK2_SmallDecentral_SH</t>
@@ -800,7 +737,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M124"/>
+  <dimension ref="A1:M114"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -852,7 +789,7 @@
         <v>13</v>
       </c>
       <c r="B2" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="C2">
         <v>2.544303797468355</v>
@@ -893,7 +830,7 @@
         <v>14</v>
       </c>
       <c r="B3" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="C3">
         <v>0.5185185185185185</v>
@@ -934,7 +871,7 @@
         <v>15</v>
       </c>
       <c r="B4" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="C4">
         <v>0.9464720194647203</v>
@@ -975,7 +912,7 @@
         <v>16</v>
       </c>
       <c r="B5" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="C5">
         <v>4.169188445667125</v>
@@ -987,7 +924,7 @@
         <v>598.211</v>
       </c>
       <c r="F5" t="s">
-        <v>109</v>
+        <v>88</v>
       </c>
       <c r="G5">
         <v>7.355</v>
@@ -1016,7 +953,7 @@
         <v>17</v>
       </c>
       <c r="B6" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="C6">
         <v>2.650371944739639</v>
@@ -1057,7 +994,7 @@
         <v>18</v>
       </c>
       <c r="B7" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="C7">
         <v>1</v>
@@ -1098,7 +1035,7 @@
         <v>19</v>
       </c>
       <c r="B8" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="C8">
         <v>2.773333333333333</v>
@@ -1128,7 +1065,7 @@
         <v>18871.99865918949</v>
       </c>
       <c r="L8" t="s">
-        <v>110</v>
+        <v>89</v>
       </c>
       <c r="M8">
         <v>-10</v>
@@ -1139,7 +1076,7 @@
         <v>20</v>
       </c>
       <c r="B9" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="C9">
         <v>1.113122171945701</v>
@@ -1151,25 +1088,25 @@
         <v>13.281</v>
       </c>
       <c r="F9" t="s">
-        <v>110</v>
+        <v>89</v>
       </c>
       <c r="G9">
         <v>2</v>
       </c>
       <c r="H9" t="s">
-        <v>109</v>
+        <v>88</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9" t="s">
-        <v>109</v>
+        <v>88</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9" t="s">
-        <v>111</v>
+        <v>90</v>
       </c>
       <c r="M9">
         <v>-0.2808402594568861</v>
@@ -1180,7 +1117,7 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="C10">
         <v>2.692307692307692</v>
@@ -1192,7 +1129,7 @@
         <v>340.864</v>
       </c>
       <c r="F10" t="s">
-        <v>111</v>
+        <v>90</v>
       </c>
       <c r="G10">
         <v>100.826</v>
@@ -1210,7 +1147,7 @@
         <v>41780.64064438807</v>
       </c>
       <c r="L10" t="s">
-        <v>112</v>
+        <v>91</v>
       </c>
       <c r="M10">
         <v>-0.2471153414447986</v>
@@ -1221,7 +1158,7 @@
         <v>22</v>
       </c>
       <c r="B11" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="C11">
         <v>0.4929577464788733</v>
@@ -1233,7 +1170,7 @@
         <v>0.195</v>
       </c>
       <c r="F11" t="s">
-        <v>112</v>
+        <v>91</v>
       </c>
       <c r="G11">
         <v>44.546</v>
@@ -1251,7 +1188,7 @@
         <v>146939.6312029963</v>
       </c>
       <c r="L11" t="s">
-        <v>113</v>
+        <v>92</v>
       </c>
       <c r="M11">
         <v>-1</v>
@@ -1262,7 +1199,7 @@
         <v>23</v>
       </c>
       <c r="B12" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="C12">
         <v>1</v>
@@ -1274,7 +1211,7 @@
         <v>34.192</v>
       </c>
       <c r="F12" t="s">
-        <v>113</v>
+        <v>92</v>
       </c>
       <c r="G12">
         <v>560.42</v>
@@ -1303,7 +1240,7 @@
         <v>24</v>
       </c>
       <c r="B13" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="C13">
         <v>5.739371534195933</v>
@@ -1315,7 +1252,7 @@
         <v>40.033</v>
       </c>
       <c r="F13" t="s">
-        <v>114</v>
+        <v>93</v>
       </c>
       <c r="G13">
         <v>248.8</v>
@@ -1344,7 +1281,7 @@
         <v>25</v>
       </c>
       <c r="B14" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="C14">
         <v>1.5</v>
@@ -1356,7 +1293,7 @@
         <v>9.721</v>
       </c>
       <c r="F14" t="s">
-        <v>115</v>
+        <v>94</v>
       </c>
       <c r="G14">
         <v>4.1</v>
@@ -1385,7 +1322,7 @@
         <v>26</v>
       </c>
       <c r="B15" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="C15">
         <v>3.046511627906977</v>
@@ -1403,10 +1340,10 @@
         <v>0.5</v>
       </c>
       <c r="H15" t="s">
-        <v>110</v>
+        <v>89</v>
       </c>
       <c r="J15" t="s">
-        <v>110</v>
+        <v>89</v>
       </c>
       <c r="L15" t="s">
         <v>34</v>
@@ -1420,7 +1357,7 @@
         <v>27</v>
       </c>
       <c r="B16" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="C16">
         <v>1</v>
@@ -1438,13 +1375,13 @@
         <v>1.61</v>
       </c>
       <c r="H16" t="s">
-        <v>111</v>
+        <v>90</v>
       </c>
       <c r="I16">
         <v>2.300976353351277</v>
       </c>
       <c r="J16" t="s">
-        <v>111</v>
+        <v>90</v>
       </c>
       <c r="K16">
         <v>2101.34826790071</v>
@@ -1461,7 +1398,7 @@
         <v>28</v>
       </c>
       <c r="B17" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="C17">
         <v>1.032166508987701</v>
@@ -1479,19 +1416,19 @@
         <v>545.326</v>
       </c>
       <c r="H17" t="s">
-        <v>112</v>
+        <v>91</v>
       </c>
       <c r="I17">
         <v>2.300976353351277</v>
       </c>
       <c r="J17" t="s">
-        <v>112</v>
+        <v>91</v>
       </c>
       <c r="K17">
         <v>2101.34826790071</v>
       </c>
       <c r="L17" t="s">
-        <v>116</v>
+        <v>95</v>
       </c>
       <c r="M17">
         <v>-10</v>
@@ -1502,17 +1439,11 @@
         <v>29</v>
       </c>
       <c r="B18" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="C18">
         <v>5.350877192982455</v>
       </c>
-      <c r="D18" t="s">
-        <v>51</v>
-      </c>
-      <c r="E18">
-        <v>10</v>
-      </c>
       <c r="F18" t="s">
         <v>30</v>
       </c>
@@ -1520,19 +1451,19 @@
         <v>5.35</v>
       </c>
       <c r="H18" t="s">
-        <v>113</v>
+        <v>92</v>
       </c>
       <c r="I18">
         <v>0.4903145958434989</v>
       </c>
       <c r="J18" t="s">
-        <v>113</v>
+        <v>92</v>
       </c>
       <c r="K18">
         <v>1110.212334874208</v>
       </c>
       <c r="L18" t="s">
-        <v>118</v>
+        <v>97</v>
       </c>
       <c r="M18">
         <v>-0.3113682161510096</v>
@@ -1543,17 +1474,11 @@
         <v>30</v>
       </c>
       <c r="B19" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="C19">
         <v>1.117647058823529</v>
       </c>
-      <c r="D19" t="s">
-        <v>52</v>
-      </c>
-      <c r="E19">
-        <v>41.764</v>
-      </c>
       <c r="F19" t="s">
         <v>31</v>
       </c>
@@ -1561,19 +1486,19 @@
         <v>896.681</v>
       </c>
       <c r="H19" t="s">
-        <v>114</v>
+        <v>93</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19" t="s">
-        <v>114</v>
+        <v>93</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19" t="s">
-        <v>119</v>
+        <v>98</v>
       </c>
       <c r="M19">
         <v>-0.1848692749860931</v>
@@ -1584,17 +1509,11 @@
         <v>31</v>
       </c>
       <c r="B20" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="C20">
         <v>0.9939393939393939</v>
       </c>
-      <c r="D20" t="s">
-        <v>53</v>
-      </c>
-      <c r="E20">
-        <v>1.781</v>
-      </c>
       <c r="F20" t="s">
         <v>33</v>
       </c>
@@ -1602,19 +1521,19 @@
         <v>355.433</v>
       </c>
       <c r="H20" t="s">
-        <v>115</v>
+        <v>94</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20" t="s">
-        <v>115</v>
+        <v>94</v>
       </c>
       <c r="K20">
         <v>63.66022069579798</v>
       </c>
       <c r="L20" t="s">
-        <v>120</v>
+        <v>99</v>
       </c>
       <c r="M20">
         <v>-1</v>
@@ -1625,16 +1544,10 @@
         <v>32</v>
       </c>
       <c r="B21" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="C21">
         <v>2.24390243902439</v>
-      </c>
-      <c r="D21" t="s">
-        <v>97</v>
-      </c>
-      <c r="E21">
-        <v>84.419</v>
       </c>
       <c r="F21" t="s">
         <v>35</v>
@@ -1666,19 +1579,13 @@
         <v>33</v>
       </c>
       <c r="B22" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="C22">
         <v>1.150943396226415</v>
       </c>
-      <c r="D22" t="s">
-        <v>54</v>
-      </c>
-      <c r="E22">
-        <v>90.25200000000001</v>
-      </c>
       <c r="F22" t="s">
-        <v>116</v>
+        <v>95</v>
       </c>
       <c r="G22">
         <v>7.8</v>
@@ -1707,19 +1614,13 @@
         <v>34</v>
       </c>
       <c r="B23" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="C23">
         <v>20</v>
       </c>
-      <c r="D23" t="s">
-        <v>98</v>
-      </c>
-      <c r="E23">
-        <v>95.09999999999999</v>
-      </c>
       <c r="F23" t="s">
-        <v>117</v>
+        <v>96</v>
       </c>
       <c r="G23">
         <v>8.300000000000001</v>
@@ -1748,19 +1649,13 @@
         <v>35</v>
       </c>
       <c r="B24" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="C24">
         <v>0.9385964912280701</v>
       </c>
-      <c r="D24" t="s">
-        <v>55</v>
-      </c>
-      <c r="E24">
-        <v>26.081</v>
-      </c>
       <c r="F24" t="s">
-        <v>118</v>
+        <v>97</v>
       </c>
       <c r="G24">
         <v>72.949</v>
@@ -1789,19 +1684,13 @@
         <v>36</v>
       </c>
       <c r="B25" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="C25">
         <v>8.126213592233009</v>
       </c>
-      <c r="D25" t="s">
-        <v>99</v>
-      </c>
-      <c r="E25">
-        <v>2900.164</v>
-      </c>
       <c r="F25" t="s">
-        <v>119</v>
+        <v>98</v>
       </c>
       <c r="G25">
         <v>10.786</v>
@@ -1830,19 +1719,13 @@
         <v>37</v>
       </c>
       <c r="B26" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="C26">
         <v>1.857142857142857</v>
       </c>
-      <c r="D26" t="s">
-        <v>100</v>
-      </c>
-      <c r="E26">
-        <v>6.894</v>
-      </c>
       <c r="F26" t="s">
-        <v>120</v>
+        <v>99</v>
       </c>
       <c r="G26">
         <v>192.3</v>
@@ -1860,7 +1743,7 @@
         <v>0</v>
       </c>
       <c r="L26" t="s">
-        <v>123</v>
+        <v>102</v>
       </c>
       <c r="M26">
         <v>-10</v>
@@ -1871,19 +1754,13 @@
         <v>38</v>
       </c>
       <c r="B27" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="C27">
         <v>2.567375886524823</v>
       </c>
-      <c r="D27" t="s">
-        <v>101</v>
-      </c>
-      <c r="E27">
-        <v>4113.983</v>
-      </c>
       <c r="F27" t="s">
-        <v>121</v>
+        <v>100</v>
       </c>
       <c r="G27">
         <v>14.5</v>
@@ -1901,7 +1778,7 @@
         <v>1908.724676676478</v>
       </c>
       <c r="L27" t="s">
-        <v>124</v>
+        <v>103</v>
       </c>
       <c r="M27">
         <v>-0.2929720248650695</v>
@@ -1912,19 +1789,13 @@
         <v>39</v>
       </c>
       <c r="B28" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="C28">
         <v>0.5757575757575757</v>
       </c>
-      <c r="D28" t="s">
-        <v>102</v>
-      </c>
-      <c r="E28">
-        <v>1606.4</v>
-      </c>
       <c r="F28" t="s">
-        <v>122</v>
+        <v>101</v>
       </c>
       <c r="G28">
         <v>139</v>
@@ -1942,7 +1813,7 @@
         <v>18871.99865918949</v>
       </c>
       <c r="L28" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="M28">
         <v>-0.2080392391434382</v>
@@ -1953,13 +1824,13 @@
         <v>40</v>
       </c>
       <c r="B29" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="C29">
         <v>1.008758568164509</v>
       </c>
       <c r="D29" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="E29">
         <v>3.047</v>
@@ -1983,7 +1854,7 @@
         <v>41780.64064438807</v>
       </c>
       <c r="L29" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="M29">
         <v>-1</v>
@@ -1994,13 +1865,13 @@
         <v>41</v>
       </c>
       <c r="B30" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="C30">
         <v>6.704545454545454</v>
       </c>
       <c r="D30" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="E30">
         <v>904.218</v>
@@ -2024,7 +1895,7 @@
         <v>146939.6312029963</v>
       </c>
       <c r="L30" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="M30">
         <v>0.930381679389313</v>
@@ -2035,13 +1906,13 @@
         <v>42</v>
       </c>
       <c r="B31" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="C31">
         <v>0.9166666666666667</v>
       </c>
       <c r="D31" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="E31">
         <v>183.328</v>
@@ -2065,7 +1936,7 @@
         <v>82758.0992841563</v>
       </c>
       <c r="L31" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="M31">
         <v>0.5307487094000287</v>
@@ -2076,13 +1947,13 @@
         <v>43</v>
       </c>
       <c r="B32" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="C32">
         <v>1.125</v>
       </c>
       <c r="D32" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="E32">
         <v>2.777</v>
@@ -2106,7 +1977,7 @@
         <v>281317.9993652075</v>
       </c>
       <c r="L32" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="M32">
         <v>1.019655828336874</v>
@@ -2117,13 +1988,13 @@
         <v>44</v>
       </c>
       <c r="B33" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="C33">
         <v>2.522058823529412</v>
       </c>
       <c r="D33" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="E33">
         <v>82.99299999999999</v>
@@ -2135,13 +2006,13 @@
         <v>1308.327</v>
       </c>
       <c r="H33" t="s">
-        <v>116</v>
+        <v>95</v>
       </c>
       <c r="J33" t="s">
-        <v>116</v>
+        <v>95</v>
       </c>
       <c r="L33" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="M33">
         <v>0.3334534101825168</v>
@@ -2152,13 +2023,13 @@
         <v>45</v>
       </c>
       <c r="B34" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="C34">
         <v>1</v>
       </c>
       <c r="D34" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="E34">
         <v>28.505</v>
@@ -2170,19 +2041,19 @@
         <v>1.264</v>
       </c>
       <c r="H34" t="s">
-        <v>117</v>
+        <v>96</v>
       </c>
       <c r="I34">
         <v>2.663131119234357</v>
       </c>
       <c r="J34" t="s">
-        <v>117</v>
+        <v>96</v>
       </c>
       <c r="K34">
         <v>14919.57270209504</v>
       </c>
       <c r="L34" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="M34">
         <v>0.2310257573690906</v>
@@ -2193,13 +2064,13 @@
         <v>46</v>
       </c>
       <c r="B35" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="C35">
         <v>1.136363636363636</v>
       </c>
       <c r="D35" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="E35">
         <v>98.21299999999999</v>
@@ -2211,19 +2082,19 @@
         <v>456.711</v>
       </c>
       <c r="H35" t="s">
-        <v>118</v>
+        <v>97</v>
       </c>
       <c r="I35">
         <v>2.300976353351277</v>
       </c>
       <c r="J35" t="s">
-        <v>118</v>
+        <v>97</v>
       </c>
       <c r="K35">
         <v>2101.34826790071</v>
       </c>
       <c r="L35" t="s">
-        <v>129</v>
+        <v>104</v>
       </c>
       <c r="M35">
         <v>-0.2901974951830443</v>
@@ -2234,13 +2105,13 @@
         <v>47</v>
       </c>
       <c r="B36" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="C36">
         <v>2.111111111111111</v>
       </c>
       <c r="D36" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="E36">
         <v>0.014</v>
@@ -2252,19 +2123,19 @@
         <v>1.102</v>
       </c>
       <c r="H36" t="s">
-        <v>119</v>
+        <v>98</v>
       </c>
       <c r="I36">
         <v>2.300976353351277</v>
       </c>
       <c r="J36" t="s">
-        <v>119</v>
+        <v>98</v>
       </c>
       <c r="K36">
         <v>2101.34826790071</v>
       </c>
       <c r="L36" t="s">
-        <v>130</v>
+        <v>105</v>
       </c>
       <c r="M36">
         <v>-0.1658761528326746</v>
@@ -2275,13 +2146,13 @@
         <v>48</v>
       </c>
       <c r="B37" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="C37">
         <v>1</v>
       </c>
       <c r="D37" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="E37">
         <v>23.699</v>
@@ -2293,19 +2164,19 @@
         <v>6.284</v>
       </c>
       <c r="H37" t="s">
-        <v>120</v>
+        <v>99</v>
       </c>
       <c r="I37">
         <v>0.4903145958434989</v>
       </c>
       <c r="J37" t="s">
-        <v>120</v>
+        <v>99</v>
       </c>
       <c r="K37">
         <v>1110.212334874208</v>
       </c>
       <c r="L37" t="s">
-        <v>131</v>
+        <v>106</v>
       </c>
       <c r="M37">
         <v>-1</v>
@@ -2316,37 +2187,37 @@
         <v>49</v>
       </c>
       <c r="B38" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="C38">
         <v>1.083333333333333</v>
       </c>
       <c r="D38" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="E38">
         <v>13.327</v>
       </c>
       <c r="F38" t="s">
-        <v>123</v>
+        <v>102</v>
       </c>
       <c r="G38">
         <v>1</v>
       </c>
       <c r="H38" t="s">
-        <v>121</v>
+        <v>100</v>
       </c>
       <c r="I38">
         <v>0</v>
       </c>
       <c r="J38" t="s">
-        <v>121</v>
+        <v>100</v>
       </c>
       <c r="K38">
         <v>0</v>
       </c>
       <c r="L38" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="M38">
         <v>0.2321046160360228</v>
@@ -2357,37 +2228,37 @@
         <v>50</v>
       </c>
       <c r="B39" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="C39">
         <v>11.28571428571429</v>
       </c>
       <c r="D39" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="E39">
         <v>21.986</v>
       </c>
       <c r="F39" t="s">
-        <v>124</v>
+        <v>103</v>
       </c>
       <c r="G39">
         <v>258.837</v>
       </c>
       <c r="H39" t="s">
-        <v>122</v>
+        <v>101</v>
       </c>
       <c r="I39">
         <v>0</v>
       </c>
       <c r="J39" t="s">
-        <v>122</v>
+        <v>101</v>
       </c>
       <c r="K39">
         <v>63.66022069579798</v>
       </c>
       <c r="L39" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="M39">
         <v>0.896144897121219</v>
@@ -2398,40 +2269,34 @@
         <v>51</v>
       </c>
       <c r="B40" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="C40">
-        <v>2.791666666666667</v>
-      </c>
-      <c r="D40" t="s">
-        <v>82</v>
-      </c>
-      <c r="E40">
-        <v>101.657</v>
+        <v>1.25</v>
       </c>
       <c r="F40" t="s">
-        <v>125</v>
+        <v>53</v>
       </c>
       <c r="G40">
-        <v>8.359</v>
+        <v>1.51</v>
       </c>
       <c r="H40" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="I40">
-        <v>2.715967258535468</v>
+        <v>0</v>
       </c>
       <c r="J40" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="K40">
-        <v>41780.64064438807</v>
+        <v>0</v>
       </c>
       <c r="L40" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="M40">
-        <v>0.2258064516129032</v>
+        <v>0.892931323283082</v>
       </c>
     </row>
     <row r="41" spans="1:13">
@@ -2439,40 +2304,34 @@
         <v>52</v>
       </c>
       <c r="B41" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="C41">
-        <v>2.090909090909091</v>
-      </c>
-      <c r="D41" t="s">
-        <v>103</v>
-      </c>
-      <c r="E41">
-        <v>0.008999999999999999</v>
+        <v>2.384615384615385</v>
       </c>
       <c r="F41" t="s">
-        <v>126</v>
+        <v>54</v>
       </c>
       <c r="G41">
-        <v>482.13</v>
+        <v>39.522</v>
       </c>
       <c r="H41" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="I41">
-        <v>9.280954849894803</v>
+        <v>1.225786489608747</v>
       </c>
       <c r="J41" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="K41">
-        <v>109751.6689088975</v>
+        <v>1908.724676676478</v>
       </c>
       <c r="L41" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="M41">
-        <v>0.2907210677396403</v>
+        <v>0.3062970186681527</v>
       </c>
     </row>
     <row r="42" spans="1:13">
@@ -2480,40 +2339,34 @@
         <v>53</v>
       </c>
       <c r="B42" t="s">
-        <v>91</v>
-      </c>
-      <c r="C42" t="s">
-        <v>96</v>
-      </c>
-      <c r="D42" t="s">
-        <v>85</v>
-      </c>
-      <c r="E42">
-        <v>1.174</v>
+        <v>80</v>
+      </c>
+      <c r="C42">
+        <v>1</v>
       </c>
       <c r="F42" t="s">
-        <v>127</v>
+        <v>56</v>
       </c>
       <c r="G42">
-        <v>76.62</v>
+        <v>1049.665</v>
       </c>
       <c r="H42" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="I42">
-        <v>0</v>
+        <v>6.889420392617329</v>
       </c>
       <c r="J42" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="K42">
-        <v>0</v>
+        <v>18871.99865918949</v>
       </c>
       <c r="L42" t="s">
-        <v>134</v>
+        <v>77</v>
       </c>
       <c r="M42">
-        <v>-0.29412</v>
+        <v>0.8030666898393187</v>
       </c>
     </row>
     <row r="43" spans="1:13">
@@ -2521,40 +2374,34 @@
         <v>54</v>
       </c>
       <c r="B43" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="C43">
-        <v>2.524390243902439</v>
-      </c>
-      <c r="D43" t="s">
-        <v>86</v>
-      </c>
-      <c r="E43">
-        <v>8.025</v>
+        <v>1.1171875</v>
       </c>
       <c r="F43" t="s">
-        <v>128</v>
+        <v>58</v>
       </c>
       <c r="G43">
-        <v>780.0309999999999</v>
+        <v>1214.422</v>
       </c>
       <c r="H43" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="I43">
-        <v>1.038205183437431</v>
+        <v>0</v>
       </c>
       <c r="J43" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="K43">
-        <v>40675.09797233142</v>
+        <v>0</v>
       </c>
       <c r="L43" t="s">
-        <v>135</v>
+        <v>87</v>
       </c>
       <c r="M43">
-        <v>-0.1855555555555556</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="44" spans="1:13">
@@ -2562,40 +2409,34 @@
         <v>55</v>
       </c>
       <c r="B44" t="s">
-        <v>94</v>
+        <v>81</v>
       </c>
       <c r="C44">
-        <v>11</v>
-      </c>
-      <c r="D44" t="s">
-        <v>87</v>
-      </c>
-      <c r="E44">
-        <v>21.34</v>
+        <v>4.085293195359047</v>
       </c>
       <c r="F44" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="G44">
-        <v>7.29</v>
+        <v>7</v>
       </c>
       <c r="H44" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="I44">
-        <v>4.441489061845738</v>
+        <v>2.715967258535468</v>
       </c>
       <c r="J44" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="K44">
-        <v>213076.714365132</v>
+        <v>41780.64064438807</v>
       </c>
       <c r="L44" t="s">
-        <v>136</v>
+        <v>114</v>
       </c>
       <c r="M44">
-        <v>-1</v>
+        <v>-0.309554234769688</v>
       </c>
     </row>
     <row r="45" spans="1:13">
@@ -2603,40 +2444,34 @@
         <v>56</v>
       </c>
       <c r="B45" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="C45">
-        <v>1.25</v>
-      </c>
-      <c r="D45" t="s">
+        <v>1.12</v>
+      </c>
+      <c r="F45" t="s">
         <v>104</v>
       </c>
-      <c r="E45">
-        <v>39.805</v>
-      </c>
-      <c r="F45" t="s">
-        <v>58</v>
-      </c>
       <c r="G45">
-        <v>1.51</v>
+        <v>41.52</v>
       </c>
       <c r="H45" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="I45">
-        <v>0</v>
+        <v>11.02137867397912</v>
       </c>
       <c r="J45" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="K45">
-        <v>0</v>
+        <v>146939.6312029963</v>
       </c>
       <c r="L45" t="s">
-        <v>77</v>
+        <v>115</v>
       </c>
       <c r="M45">
-        <v>0.892931323283082</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="46" spans="1:13">
@@ -2644,40 +2479,28 @@
         <v>57</v>
       </c>
       <c r="B46" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="C46">
-        <v>2.384615384615385</v>
-      </c>
-      <c r="D46" t="s">
-        <v>88</v>
-      </c>
-      <c r="E46">
-        <v>33.08</v>
+        <v>2.546153846153846</v>
       </c>
       <c r="F46" t="s">
-        <v>59</v>
+        <v>105</v>
       </c>
       <c r="G46">
-        <v>39.522</v>
+        <v>15.18</v>
       </c>
       <c r="H46" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="I46">
-        <v>1.225786489608747</v>
+        <v>0</v>
       </c>
       <c r="J46" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="K46">
-        <v>1908.724676676478</v>
-      </c>
-      <c r="L46" t="s">
-        <v>79</v>
-      </c>
-      <c r="M46">
-        <v>0.3062970186681527</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:13">
@@ -2685,40 +2508,28 @@
         <v>58</v>
       </c>
       <c r="B47" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="C47">
-        <v>1</v>
-      </c>
-      <c r="D47" t="s">
-        <v>89</v>
-      </c>
-      <c r="E47">
-        <v>833.282</v>
+        <v>1.129787234042553</v>
       </c>
       <c r="F47" t="s">
-        <v>61</v>
+        <v>106</v>
       </c>
       <c r="G47">
-        <v>1049.665</v>
+        <v>205.2</v>
       </c>
       <c r="H47" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="I47">
-        <v>6.889420392617329</v>
+        <v>5.883910102560225</v>
       </c>
       <c r="J47" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="K47">
-        <v>18871.99865918949</v>
-      </c>
-      <c r="L47" t="s">
-        <v>82</v>
-      </c>
-      <c r="M47">
-        <v>0.8030666898393187</v>
+        <v>82758.0992841563</v>
       </c>
     </row>
     <row r="48" spans="1:13">
@@ -2726,929 +2537,713 @@
         <v>59</v>
       </c>
       <c r="B48" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="C48">
-        <v>1.1171875</v>
-      </c>
-      <c r="D48" t="s">
-        <v>105</v>
-      </c>
-      <c r="E48">
-        <v>1.25</v>
+        <v>5.588235294117647</v>
       </c>
       <c r="F48" t="s">
-        <v>63</v>
+        <v>107</v>
       </c>
       <c r="G48">
-        <v>1214.422</v>
+        <v>0.9</v>
       </c>
       <c r="H48" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="I48">
-        <v>0</v>
+        <v>27.21090470736225</v>
       </c>
       <c r="J48" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="K48">
-        <v>0</v>
-      </c>
-      <c r="L48" t="s">
-        <v>103</v>
-      </c>
-      <c r="M48">
-        <v>0.45</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13">
+        <v>281317.9993652075</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11">
       <c r="A49" t="s">
         <v>60</v>
       </c>
       <c r="B49" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="C49">
-        <v>4.085293195359047</v>
-      </c>
-      <c r="D49" t="s">
-        <v>106</v>
-      </c>
-      <c r="E49">
-        <v>1010.638</v>
+        <v>1.178571428571429</v>
       </c>
       <c r="F49" t="s">
-        <v>65</v>
+        <v>108</v>
       </c>
       <c r="G49">
-        <v>7</v>
+        <v>2.1</v>
       </c>
       <c r="H49" t="s">
-        <v>46</v>
-      </c>
-      <c r="I49">
-        <v>2.715967258535468</v>
+        <v>102</v>
       </c>
       <c r="J49" t="s">
-        <v>46</v>
-      </c>
-      <c r="K49">
-        <v>41780.64064438807</v>
-      </c>
-      <c r="L49" t="s">
-        <v>139</v>
-      </c>
-      <c r="M49">
-        <v>-0.309554234769688</v>
-      </c>
-    </row>
-    <row r="50" spans="1:13">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11">
       <c r="A50" t="s">
         <v>61</v>
       </c>
       <c r="B50" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="C50">
-        <v>1.12</v>
-      </c>
-      <c r="D50" t="s">
-        <v>107</v>
-      </c>
-      <c r="E50">
-        <v>742.463</v>
+        <v>6.712270803949225</v>
       </c>
       <c r="F50" t="s">
-        <v>129</v>
+        <v>62</v>
       </c>
       <c r="G50">
-        <v>41.52</v>
+        <v>1.33</v>
       </c>
       <c r="H50" t="s">
-        <v>47</v>
+        <v>103</v>
       </c>
       <c r="I50">
-        <v>11.02137867397912</v>
+        <v>2.300976353351277</v>
       </c>
       <c r="J50" t="s">
-        <v>47</v>
+        <v>103</v>
       </c>
       <c r="K50">
-        <v>146939.6312029963</v>
-      </c>
-      <c r="L50" t="s">
-        <v>140</v>
-      </c>
-      <c r="M50">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13">
+        <v>2101.34826790071</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11">
       <c r="A51" t="s">
         <v>62</v>
       </c>
       <c r="B51" t="s">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="C51">
-        <v>2.546153846153846</v>
-      </c>
-      <c r="D51" t="s">
-        <v>108</v>
-      </c>
-      <c r="E51">
-        <v>1049.2</v>
+        <v>1.5</v>
       </c>
       <c r="F51" t="s">
-        <v>130</v>
+        <v>63</v>
       </c>
       <c r="G51">
-        <v>15.18</v>
+        <v>169.194</v>
       </c>
       <c r="H51" t="s">
-        <v>48</v>
+        <v>117</v>
       </c>
       <c r="I51">
-        <v>0</v>
+        <v>2.300976353351277</v>
       </c>
       <c r="J51" t="s">
-        <v>48</v>
+        <v>117</v>
       </c>
       <c r="K51">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13">
+        <v>2101.34826790071</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11">
       <c r="A52" t="s">
         <v>63</v>
       </c>
       <c r="B52" t="s">
-        <v>94</v>
+        <v>81</v>
       </c>
       <c r="C52">
-        <v>1.129787234042553</v>
+        <v>1.022535211267606</v>
       </c>
       <c r="F52" t="s">
-        <v>131</v>
+        <v>65</v>
       </c>
       <c r="G52">
-        <v>205.2</v>
+        <v>609.367</v>
       </c>
       <c r="H52" t="s">
-        <v>49</v>
+        <v>118</v>
       </c>
       <c r="I52">
-        <v>5.883910102560225</v>
+        <v>0.4903145958434989</v>
       </c>
       <c r="J52" t="s">
-        <v>49</v>
+        <v>118</v>
       </c>
       <c r="K52">
-        <v>82758.0992841563</v>
-      </c>
-    </row>
-    <row r="53" spans="1:13">
+        <v>1110.212334874208</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11">
       <c r="A53" t="s">
         <v>64</v>
       </c>
       <c r="B53" t="s">
-        <v>94</v>
+        <v>81</v>
       </c>
       <c r="C53">
-        <v>5.588235294117647</v>
+        <v>8.263999999999999</v>
       </c>
       <c r="F53" t="s">
-        <v>132</v>
+        <v>67</v>
       </c>
       <c r="G53">
-        <v>0.9</v>
+        <v>57.83</v>
       </c>
       <c r="H53" t="s">
-        <v>50</v>
+        <v>119</v>
       </c>
       <c r="I53">
-        <v>27.21090470736225</v>
+        <v>0</v>
       </c>
       <c r="J53" t="s">
-        <v>50</v>
+        <v>119</v>
       </c>
       <c r="K53">
-        <v>281317.9993652075</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11">
       <c r="A54" t="s">
         <v>65</v>
       </c>
       <c r="B54" t="s">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="C54">
-        <v>1.178571428571429</v>
+        <v>1.030042918454936</v>
       </c>
       <c r="F54" t="s">
-        <v>133</v>
+        <v>69</v>
       </c>
       <c r="G54">
-        <v>2.1</v>
+        <v>8.346</v>
       </c>
       <c r="H54" t="s">
-        <v>123</v>
+        <v>120</v>
+      </c>
+      <c r="I54">
+        <v>0</v>
       </c>
       <c r="J54" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13">
+        <v>120</v>
+      </c>
+      <c r="K54">
+        <v>63.66022069579798</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11">
       <c r="A55" t="s">
         <v>66</v>
       </c>
       <c r="B55" t="s">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="C55">
-        <v>6.712270803949225</v>
+        <v>2.875</v>
       </c>
       <c r="F55" t="s">
-        <v>67</v>
+        <v>109</v>
       </c>
       <c r="G55">
-        <v>1.33</v>
-      </c>
-      <c r="H55" t="s">
-        <v>124</v>
-      </c>
-      <c r="I55">
-        <v>2.300976353351277</v>
-      </c>
-      <c r="J55" t="s">
-        <v>124</v>
-      </c>
-      <c r="K55">
-        <v>2101.34826790071</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11">
       <c r="A56" t="s">
         <v>67</v>
       </c>
       <c r="B56" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="C56">
-        <v>1.5</v>
+        <v>1.142857142857143</v>
       </c>
       <c r="F56" t="s">
-        <v>68</v>
+        <v>110</v>
       </c>
       <c r="G56">
-        <v>169.194</v>
-      </c>
-      <c r="H56" t="s">
-        <v>125</v>
-      </c>
-      <c r="I56">
-        <v>2.300976353351277</v>
-      </c>
-      <c r="J56" t="s">
-        <v>125</v>
-      </c>
-      <c r="K56">
-        <v>2101.34826790071</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11">
       <c r="A57" t="s">
         <v>68</v>
       </c>
       <c r="B57" t="s">
-        <v>91</v>
-      </c>
-      <c r="C57">
-        <v>1.022535211267606</v>
+        <v>84</v>
+      </c>
+      <c r="C57" t="s">
+        <v>86</v>
       </c>
       <c r="F57" t="s">
-        <v>70</v>
+        <v>111</v>
       </c>
       <c r="G57">
-        <v>609.367</v>
-      </c>
-      <c r="H57" t="s">
-        <v>126</v>
-      </c>
-      <c r="I57">
-        <v>0.4903145958434989</v>
-      </c>
-      <c r="J57" t="s">
-        <v>126</v>
-      </c>
-      <c r="K57">
-        <v>1110.212334874208</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11">
       <c r="A58" t="s">
         <v>69</v>
       </c>
       <c r="B58" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="C58">
-        <v>8.263999999999999</v>
+        <v>1.272727272727273</v>
       </c>
       <c r="F58" t="s">
-        <v>72</v>
+        <v>112</v>
       </c>
       <c r="G58">
-        <v>57.83</v>
-      </c>
-      <c r="H58" t="s">
-        <v>127</v>
-      </c>
-      <c r="I58">
-        <v>0</v>
-      </c>
-      <c r="J58" t="s">
-        <v>127</v>
-      </c>
-      <c r="K58">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="1:13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11">
       <c r="A59" t="s">
         <v>70</v>
       </c>
       <c r="B59" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="C59">
-        <v>1.030042918454936</v>
+        <v>6.273972602739726</v>
       </c>
       <c r="F59" t="s">
-        <v>74</v>
+        <v>113</v>
       </c>
       <c r="G59">
-        <v>8.346</v>
-      </c>
-      <c r="H59" t="s">
-        <v>128</v>
-      </c>
-      <c r="I59">
-        <v>0</v>
-      </c>
-      <c r="J59" t="s">
-        <v>128</v>
-      </c>
-      <c r="K59">
-        <v>63.66022069579798</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13">
+        <v>2.88</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11">
       <c r="A60" t="s">
         <v>71</v>
       </c>
       <c r="B60" t="s">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="C60">
-        <v>2.875</v>
+        <v>1.666666666666667</v>
       </c>
       <c r="F60" t="s">
-        <v>134</v>
+        <v>71</v>
       </c>
       <c r="G60">
-        <v>25</v>
-      </c>
-      <c r="H60" t="s">
-        <v>51</v>
-      </c>
-      <c r="I60">
-        <v>4.377808891459813</v>
-      </c>
-      <c r="J60" t="s">
-        <v>51</v>
-      </c>
-      <c r="K60">
-        <v>31707.01053121293</v>
-      </c>
-    </row>
-    <row r="61" spans="1:13">
+        <v>4.061</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11">
       <c r="A61" t="s">
         <v>72</v>
       </c>
       <c r="B61" t="s">
-        <v>94</v>
+        <v>80</v>
       </c>
       <c r="C61">
-        <v>1.142857142857143</v>
+        <v>2.572916666666667</v>
       </c>
       <c r="F61" t="s">
-        <v>135</v>
+        <v>73</v>
       </c>
       <c r="G61">
-        <v>0.9</v>
-      </c>
-      <c r="H61" t="s">
-        <v>52</v>
-      </c>
-      <c r="I61">
-        <v>0</v>
-      </c>
-      <c r="J61" t="s">
-        <v>52</v>
-      </c>
-      <c r="K61">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="1:13">
+        <v>395.102</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11">
       <c r="A62" t="s">
         <v>73</v>
       </c>
       <c r="B62" t="s">
-        <v>94</v>
-      </c>
-      <c r="C62" t="s">
-        <v>96</v>
+        <v>81</v>
+      </c>
+      <c r="C62">
+        <v>1.023675310033822</v>
       </c>
       <c r="F62" t="s">
-        <v>136</v>
+        <v>75</v>
       </c>
       <c r="G62">
-        <v>40</v>
-      </c>
-      <c r="H62" t="s">
-        <v>53</v>
-      </c>
-      <c r="I62">
-        <v>0</v>
-      </c>
-      <c r="J62" t="s">
-        <v>53</v>
-      </c>
-      <c r="K62">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="1:13">
+        <v>3.8</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11">
       <c r="A63" t="s">
         <v>74</v>
       </c>
       <c r="B63" t="s">
-        <v>95</v>
+        <v>81</v>
       </c>
       <c r="C63">
-        <v>1.272727272727273</v>
+        <v>5.17</v>
       </c>
       <c r="F63" t="s">
-        <v>137</v>
+        <v>76</v>
       </c>
       <c r="G63">
-        <v>2</v>
-      </c>
-      <c r="H63" t="s">
-        <v>97</v>
-      </c>
-      <c r="I63">
-        <v>5.043235842961704</v>
-      </c>
-      <c r="J63" t="s">
-        <v>97</v>
-      </c>
-      <c r="K63">
-        <v>31275.0667205889</v>
-      </c>
-    </row>
-    <row r="64" spans="1:13">
+        <v>391.324</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11">
       <c r="A64" t="s">
         <v>75</v>
       </c>
       <c r="B64" t="s">
-        <v>95</v>
+        <v>81</v>
       </c>
       <c r="C64">
-        <v>6.273972602739726</v>
+        <v>1</v>
       </c>
       <c r="F64" t="s">
-        <v>138</v>
+        <v>78</v>
       </c>
       <c r="G64">
-        <v>2.88</v>
-      </c>
-      <c r="H64" t="s">
-        <v>54</v>
-      </c>
-      <c r="I64">
-        <v>0</v>
-      </c>
-      <c r="J64" t="s">
-        <v>54</v>
-      </c>
-      <c r="K64">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65" spans="1:11">
+        <v>209.911</v>
+      </c>
+    </row>
+    <row r="65" spans="1:13">
       <c r="A65" t="s">
         <v>76</v>
       </c>
       <c r="B65" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="C65">
-        <v>1.666666666666667</v>
+        <v>0.9714285714285714</v>
       </c>
       <c r="F65" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="G65">
-        <v>4.061</v>
-      </c>
-      <c r="H65" t="s">
-        <v>98</v>
-      </c>
-      <c r="I65">
-        <v>4.377808891459813</v>
-      </c>
-      <c r="J65" t="s">
-        <v>98</v>
-      </c>
-      <c r="K65">
-        <v>31707.01053121293</v>
-      </c>
-    </row>
-    <row r="66" spans="1:11">
+        <v>3.217</v>
+      </c>
+    </row>
+    <row r="66" spans="1:13">
       <c r="A66" t="s">
         <v>77</v>
       </c>
       <c r="B66" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="C66">
-        <v>2.572916666666667</v>
+        <v>2.518518518518519</v>
       </c>
       <c r="F66" t="s">
-        <v>78</v>
+        <v>114</v>
       </c>
       <c r="G66">
-        <v>395.102</v>
+        <v>67.3</v>
       </c>
       <c r="H66" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="I66">
-        <v>0</v>
+        <v>2.715967258535468</v>
       </c>
       <c r="J66" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="K66">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67" spans="1:11">
+        <v>41780.64064438807</v>
+      </c>
+    </row>
+    <row r="67" spans="1:13">
       <c r="A67" t="s">
         <v>78</v>
       </c>
       <c r="B67" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="C67">
-        <v>1.023675310033822</v>
+        <v>1.125</v>
       </c>
       <c r="F67" t="s">
-        <v>80</v>
+        <v>115</v>
       </c>
       <c r="G67">
-        <v>3.8</v>
+        <v>87.3</v>
       </c>
       <c r="H67" t="s">
-        <v>99</v>
+        <v>52</v>
       </c>
       <c r="I67">
-        <v>0</v>
+        <v>9.280954849894803</v>
       </c>
       <c r="J67" t="s">
-        <v>99</v>
+        <v>52</v>
       </c>
       <c r="K67">
-        <v>11802.09647898104</v>
-      </c>
-    </row>
-    <row r="68" spans="1:11">
+        <v>109751.6689088975</v>
+      </c>
+    </row>
+    <row r="68" spans="1:13">
       <c r="A68" t="s">
         <v>79</v>
       </c>
       <c r="B68" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="C68">
-        <v>5.17</v>
+        <v>1.15</v>
       </c>
       <c r="F68" t="s">
-        <v>81</v>
+        <v>116</v>
       </c>
       <c r="G68">
-        <v>391.324</v>
+        <v>19.3</v>
       </c>
       <c r="H68" t="s">
-        <v>100</v>
+        <v>53</v>
+      </c>
+      <c r="I68">
+        <v>0</v>
       </c>
       <c r="J68" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="69" spans="1:11">
-      <c r="A69" t="s">
-        <v>80</v>
-      </c>
-      <c r="B69" t="s">
-        <v>91</v>
-      </c>
-      <c r="C69">
-        <v>1</v>
+        <v>53</v>
+      </c>
+      <c r="K68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:13">
+      <c r="D69" t="s">
+        <v>77</v>
+      </c>
+      <c r="E69">
+        <v>101.657</v>
       </c>
       <c r="F69" t="s">
-        <v>83</v>
+        <v>117</v>
       </c>
       <c r="G69">
-        <v>209.911</v>
+        <v>8.359</v>
       </c>
       <c r="H69" t="s">
-        <v>101</v>
+        <v>37</v>
       </c>
       <c r="I69">
-        <v>1.576011200925532</v>
+        <v>2.715967258535468</v>
       </c>
       <c r="J69" t="s">
-        <v>101</v>
+        <v>37</v>
       </c>
       <c r="K69">
-        <v>35985.58908779966</v>
-      </c>
-    </row>
-    <row r="70" spans="1:11">
-      <c r="A70" t="s">
-        <v>81</v>
-      </c>
-      <c r="B70" t="s">
-        <v>93</v>
-      </c>
-      <c r="C70">
-        <v>0.9714285714285714</v>
+        <v>41780.64064438807</v>
+      </c>
+      <c r="L69" t="s">
+        <v>68</v>
+      </c>
+      <c r="M69">
+        <v>0.2258064516129032</v>
+      </c>
+    </row>
+    <row r="70" spans="1:13">
+      <c r="D70" t="s">
+        <v>87</v>
+      </c>
+      <c r="E70">
+        <v>0.008999999999999999</v>
       </c>
       <c r="F70" t="s">
-        <v>84</v>
+        <v>118</v>
       </c>
       <c r="G70">
-        <v>3.217</v>
+        <v>482.13</v>
       </c>
       <c r="H70" t="s">
-        <v>102</v>
+        <v>38</v>
       </c>
       <c r="I70">
-        <v>4.976288044545763</v>
+        <v>9.280954849894803</v>
       </c>
       <c r="J70" t="s">
-        <v>102</v>
+        <v>38</v>
       </c>
       <c r="K70">
-        <v>49762.88044545763</v>
-      </c>
-    </row>
-    <row r="71" spans="1:11">
-      <c r="A71" t="s">
-        <v>82</v>
-      </c>
-      <c r="B71" t="s">
-        <v>93</v>
-      </c>
-      <c r="C71">
-        <v>2.518518518518519</v>
-      </c>
+        <v>109751.6689088975</v>
+      </c>
+      <c r="L70" t="s">
+        <v>70</v>
+      </c>
+      <c r="M70">
+        <v>0.2907210677396403</v>
+      </c>
+    </row>
+    <row r="71" spans="1:13">
       <c r="F71" t="s">
-        <v>139</v>
+        <v>119</v>
       </c>
       <c r="G71">
-        <v>67.3</v>
+        <v>76.62</v>
       </c>
       <c r="H71" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="I71">
-        <v>2.715967258535468</v>
+        <v>0</v>
       </c>
       <c r="J71" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="K71">
-        <v>41780.64064438807</v>
-      </c>
-    </row>
-    <row r="72" spans="1:11">
-      <c r="A72" t="s">
-        <v>83</v>
-      </c>
-      <c r="B72" t="s">
-        <v>94</v>
-      </c>
-      <c r="C72">
-        <v>1.125</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="L71" t="s">
+        <v>109</v>
+      </c>
+      <c r="M71">
+        <v>-0.29412</v>
+      </c>
+    </row>
+    <row r="72" spans="1:13">
       <c r="F72" t="s">
-        <v>140</v>
+        <v>120</v>
       </c>
       <c r="G72">
-        <v>87.3</v>
+        <v>780.0309999999999</v>
       </c>
       <c r="H72" t="s">
-        <v>57</v>
+        <v>40</v>
       </c>
       <c r="I72">
-        <v>9.280954849894803</v>
+        <v>1.038205183437431</v>
       </c>
       <c r="J72" t="s">
-        <v>57</v>
+        <v>40</v>
       </c>
       <c r="K72">
-        <v>109751.6689088975</v>
-      </c>
-    </row>
-    <row r="73" spans="1:11">
-      <c r="A73" t="s">
-        <v>84</v>
-      </c>
-      <c r="B73" t="s">
-        <v>95</v>
-      </c>
-      <c r="C73">
-        <v>1.15</v>
-      </c>
+        <v>40675.09797233142</v>
+      </c>
+      <c r="L72" t="s">
+        <v>110</v>
+      </c>
+      <c r="M72">
+        <v>-0.1855555555555556</v>
+      </c>
+    </row>
+    <row r="73" spans="1:13">
       <c r="F73" t="s">
-        <v>141</v>
+        <v>51</v>
       </c>
       <c r="G73">
-        <v>19.3</v>
+        <v>7.29</v>
       </c>
       <c r="H73" t="s">
-        <v>58</v>
+        <v>41</v>
       </c>
       <c r="I73">
-        <v>0</v>
+        <v>4.441489061845738</v>
       </c>
       <c r="J73" t="s">
-        <v>58</v>
+        <v>41</v>
       </c>
       <c r="K73">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="74" spans="1:11">
-      <c r="A74" t="s">
-        <v>85</v>
-      </c>
-      <c r="B74" t="s">
-        <v>90</v>
-      </c>
-      <c r="C74">
-        <v>3.5</v>
-      </c>
+        <v>213076.714365132</v>
+      </c>
+      <c r="L73" t="s">
+        <v>111</v>
+      </c>
+      <c r="M73">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:13">
       <c r="F74" t="s">
-        <v>142</v>
+        <v>121</v>
       </c>
       <c r="G74">
         <v>179.046</v>
       </c>
       <c r="H74" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="I74">
         <v>1.038205183437431</v>
       </c>
       <c r="J74" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="K74">
         <v>40675.09797233142</v>
       </c>
     </row>
-    <row r="75" spans="1:11">
-      <c r="A75" t="s">
-        <v>86</v>
-      </c>
-      <c r="B75" t="s">
-        <v>90</v>
-      </c>
-      <c r="C75">
-        <v>2.222222222222222</v>
-      </c>
+    <row r="75" spans="1:13">
       <c r="H75" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="I75">
         <v>4.441489061845738</v>
       </c>
       <c r="J75" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="K75">
         <v>213076.714365132</v>
       </c>
     </row>
-    <row r="76" spans="1:11">
-      <c r="A76" t="s">
-        <v>87</v>
-      </c>
-      <c r="B76" t="s">
-        <v>92</v>
-      </c>
-      <c r="C76">
-        <v>3.210526315789474</v>
-      </c>
+    <row r="76" spans="1:13">
       <c r="H76" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="I76">
         <v>1.225786489608747</v>
       </c>
       <c r="J76" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="K76">
         <v>1908.724676676478</v>
       </c>
     </row>
-    <row r="77" spans="1:11">
-      <c r="A77" t="s">
-        <v>88</v>
-      </c>
-      <c r="B77" t="s">
-        <v>93</v>
-      </c>
-      <c r="C77">
-        <v>2</v>
-      </c>
+    <row r="77" spans="1:13">
       <c r="H77" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="I77">
         <v>6.889420392617329</v>
       </c>
       <c r="J77" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="K77">
         <v>18871.99865918949</v>
       </c>
     </row>
-    <row r="78" spans="1:11">
-      <c r="A78" t="s">
-        <v>89</v>
-      </c>
-      <c r="B78" t="s">
-        <v>94</v>
-      </c>
-      <c r="C78">
-        <v>2.6</v>
-      </c>
+    <row r="78" spans="1:13">
       <c r="H78" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="I78">
         <v>2.715967258535468</v>
       </c>
       <c r="J78" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="K78">
         <v>41780.64064438807</v>
       </c>
     </row>
-    <row r="79" spans="1:11">
+    <row r="79" spans="1:13">
       <c r="H79" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="I79">
         <v>11.02137867397912</v>
       </c>
       <c r="J79" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="K79">
         <v>146939.6312029963</v>
       </c>
     </row>
-    <row r="80" spans="1:11">
+    <row r="80" spans="1:13">
       <c r="H80" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="I80">
         <v>5.883910102560225</v>
       </c>
       <c r="J80" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="K80">
         <v>82758.0992841563</v>
@@ -3656,13 +3251,13 @@
     </row>
     <row r="81" spans="8:11">
       <c r="H81" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="I81">
         <v>27.21090470736225</v>
       </c>
       <c r="J81" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="K81">
         <v>281317.9993652075</v>
@@ -3670,13 +3265,13 @@
     </row>
     <row r="82" spans="8:11">
       <c r="H82" t="s">
-        <v>129</v>
+        <v>104</v>
       </c>
       <c r="I82">
         <v>2.300976353351277</v>
       </c>
       <c r="J82" t="s">
-        <v>129</v>
+        <v>104</v>
       </c>
       <c r="K82">
         <v>2101.34826790071</v>
@@ -3684,13 +3279,13 @@
     </row>
     <row r="83" spans="8:11">
       <c r="H83" t="s">
-        <v>130</v>
+        <v>105</v>
       </c>
       <c r="I83">
         <v>2.300976353351277</v>
       </c>
       <c r="J83" t="s">
-        <v>130</v>
+        <v>105</v>
       </c>
       <c r="K83">
         <v>2101.34826790071</v>
@@ -3698,13 +3293,13 @@
     </row>
     <row r="84" spans="8:11">
       <c r="H84" t="s">
-        <v>131</v>
+        <v>106</v>
       </c>
       <c r="I84">
         <v>0.4903145958434989</v>
       </c>
       <c r="J84" t="s">
-        <v>131</v>
+        <v>106</v>
       </c>
       <c r="K84">
         <v>1110.212334874208</v>
@@ -3712,13 +3307,13 @@
     </row>
     <row r="85" spans="8:11">
       <c r="H85" t="s">
-        <v>132</v>
+        <v>107</v>
       </c>
       <c r="I85">
         <v>0</v>
       </c>
       <c r="J85" t="s">
-        <v>132</v>
+        <v>107</v>
       </c>
       <c r="K85">
         <v>0</v>
@@ -3726,13 +3321,13 @@
     </row>
     <row r="86" spans="8:11">
       <c r="H86" t="s">
-        <v>133</v>
+        <v>108</v>
       </c>
       <c r="I86">
         <v>0</v>
       </c>
       <c r="J86" t="s">
-        <v>133</v>
+        <v>108</v>
       </c>
       <c r="K86">
         <v>63.66022069579798</v>
@@ -3740,13 +3335,13 @@
     </row>
     <row r="87" spans="8:11">
       <c r="H87" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="I87">
         <v>0</v>
       </c>
       <c r="J87" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="K87">
         <v>0</v>
@@ -3754,13 +3349,13 @@
     </row>
     <row r="88" spans="8:11">
       <c r="H88" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="I88">
         <v>1.038205183437431</v>
       </c>
       <c r="J88" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="K88">
         <v>40675.09797233142</v>
@@ -3768,13 +3363,13 @@
     </row>
     <row r="89" spans="8:11">
       <c r="H89" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="I89">
         <v>4.441489061845738</v>
       </c>
       <c r="J89" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="K89">
         <v>213076.714365132</v>
@@ -3782,13 +3377,13 @@
     </row>
     <row r="90" spans="8:11">
       <c r="H90" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="I90">
         <v>1.225786489608747</v>
       </c>
       <c r="J90" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="K90">
         <v>1908.724676676478</v>
@@ -3796,13 +3391,13 @@
     </row>
     <row r="91" spans="8:11">
       <c r="H91" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="I91">
         <v>6.889420392617329</v>
       </c>
       <c r="J91" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="K91">
         <v>18871.99865918949</v>
@@ -3810,13 +3405,13 @@
     </row>
     <row r="92" spans="8:11">
       <c r="H92" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="I92">
         <v>2.715967258535468</v>
       </c>
       <c r="J92" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="K92">
         <v>41780.64064438807</v>
@@ -3824,13 +3419,13 @@
     </row>
     <row r="93" spans="8:11">
       <c r="H93" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="I93">
         <v>11.02137867397912</v>
       </c>
       <c r="J93" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="K93">
         <v>146939.6312029963</v>
@@ -3838,13 +3433,13 @@
     </row>
     <row r="94" spans="8:11">
       <c r="H94" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="I94">
         <v>5.883910102560225</v>
       </c>
       <c r="J94" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="K94">
         <v>82758.0992841563</v>
@@ -3852,13 +3447,13 @@
     </row>
     <row r="95" spans="8:11">
       <c r="H95" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="I95">
         <v>27.21090470736225</v>
       </c>
       <c r="J95" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="K95">
         <v>281317.9993652075</v>
@@ -3866,13 +3461,13 @@
     </row>
     <row r="96" spans="8:11">
       <c r="H96" t="s">
-        <v>134</v>
+        <v>109</v>
       </c>
       <c r="I96">
         <v>2.300976353351277</v>
       </c>
       <c r="J96" t="s">
-        <v>134</v>
+        <v>109</v>
       </c>
       <c r="K96">
         <v>2101.34826790071</v>
@@ -3880,13 +3475,13 @@
     </row>
     <row r="97" spans="8:11">
       <c r="H97" t="s">
-        <v>135</v>
+        <v>110</v>
       </c>
       <c r="I97">
         <v>2.300976353351277</v>
       </c>
       <c r="J97" t="s">
-        <v>135</v>
+        <v>110</v>
       </c>
       <c r="K97">
         <v>2101.34826790071</v>
@@ -3894,13 +3489,13 @@
     </row>
     <row r="98" spans="8:11">
       <c r="H98" t="s">
-        <v>136</v>
+        <v>111</v>
       </c>
       <c r="I98">
         <v>0.4903145958434989</v>
       </c>
       <c r="J98" t="s">
-        <v>136</v>
+        <v>111</v>
       </c>
       <c r="K98">
         <v>1110.212334874208</v>
@@ -3908,13 +3503,13 @@
     </row>
     <row r="99" spans="8:11">
       <c r="H99" t="s">
-        <v>137</v>
+        <v>112</v>
       </c>
       <c r="I99">
         <v>0</v>
       </c>
       <c r="J99" t="s">
-        <v>137</v>
+        <v>112</v>
       </c>
       <c r="K99">
         <v>0</v>
@@ -3922,13 +3517,13 @@
     </row>
     <row r="100" spans="8:11">
       <c r="H100" t="s">
-        <v>138</v>
+        <v>113</v>
       </c>
       <c r="I100">
         <v>0</v>
       </c>
       <c r="J100" t="s">
-        <v>138</v>
+        <v>113</v>
       </c>
       <c r="K100">
         <v>63.66022069579798</v>
@@ -3936,13 +3531,13 @@
     </row>
     <row r="101" spans="8:11">
       <c r="H101" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="I101">
         <v>2.715967258535468</v>
       </c>
       <c r="J101" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="K101">
         <v>41780.64064438807</v>
@@ -3950,13 +3545,13 @@
     </row>
     <row r="102" spans="8:11">
       <c r="H102" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="I102">
         <v>9.280954849894803</v>
       </c>
       <c r="J102" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="K102">
         <v>109751.6689088975</v>
@@ -3964,13 +3559,13 @@
     </row>
     <row r="103" spans="8:11">
       <c r="H103" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="I103">
         <v>1.038205183437431</v>
       </c>
       <c r="J103" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="K103">
         <v>40675.09797233142</v>
@@ -3978,13 +3573,13 @@
     </row>
     <row r="104" spans="8:11">
       <c r="H104" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="I104">
         <v>4.441489061845738</v>
       </c>
       <c r="J104" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="K104">
         <v>213076.714365132</v>
@@ -3992,13 +3587,13 @@
     </row>
     <row r="105" spans="8:11">
       <c r="H105" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="I105">
         <v>0</v>
       </c>
       <c r="J105" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="K105">
         <v>0</v>
@@ -4006,13 +3601,13 @@
     </row>
     <row r="106" spans="8:11">
       <c r="H106" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="I106">
         <v>1.225786489608747</v>
       </c>
       <c r="J106" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="K106">
         <v>1908.724676676478</v>
@@ -4020,13 +3615,13 @@
     </row>
     <row r="107" spans="8:11">
       <c r="H107" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="I107">
         <v>6.889420392617329</v>
       </c>
       <c r="J107" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="K107">
         <v>18871.99865918949</v>
@@ -4034,13 +3629,13 @@
     </row>
     <row r="108" spans="8:11">
       <c r="H108" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="I108">
         <v>2.715967258535468</v>
       </c>
       <c r="J108" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="K108">
         <v>41780.64064438807</v>
@@ -4048,13 +3643,13 @@
     </row>
     <row r="109" spans="8:11">
       <c r="H109" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
       <c r="I109">
         <v>11.02137867397912</v>
       </c>
       <c r="J109" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
       <c r="K109">
         <v>146939.6312029963</v>
@@ -4062,13 +3657,13 @@
     </row>
     <row r="110" spans="8:11">
       <c r="H110" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="I110">
         <v>5.883910102560225</v>
       </c>
       <c r="J110" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="K110">
         <v>82758.0992841563</v>
@@ -4076,13 +3671,13 @@
     </row>
     <row r="111" spans="8:11">
       <c r="H111" t="s">
-        <v>139</v>
+        <v>114</v>
       </c>
       <c r="I111">
         <v>2.300976353351277</v>
       </c>
       <c r="J111" t="s">
-        <v>139</v>
+        <v>114</v>
       </c>
       <c r="K111">
         <v>2101.34826790071</v>
@@ -4090,13 +3685,13 @@
     </row>
     <row r="112" spans="8:11">
       <c r="H112" t="s">
-        <v>140</v>
+        <v>115</v>
       </c>
       <c r="I112">
         <v>0.4903145958434989</v>
       </c>
       <c r="J112" t="s">
-        <v>140</v>
+        <v>115</v>
       </c>
       <c r="K112">
         <v>1110.212334874208</v>
@@ -4104,13 +3699,13 @@
     </row>
     <row r="113" spans="8:11">
       <c r="H113" t="s">
-        <v>141</v>
+        <v>116</v>
       </c>
       <c r="I113">
         <v>0</v>
       </c>
       <c r="J113" t="s">
-        <v>141</v>
+        <v>116</v>
       </c>
       <c r="K113">
         <v>0</v>
@@ -4118,156 +3713,16 @@
     </row>
     <row r="114" spans="8:11">
       <c r="H114" t="s">
-        <v>142</v>
+        <v>121</v>
       </c>
       <c r="I114">
         <v>0</v>
       </c>
       <c r="J114" t="s">
-        <v>142</v>
+        <v>121</v>
       </c>
       <c r="K114">
         <v>63.66022069579798</v>
-      </c>
-    </row>
-    <row r="115" spans="8:11">
-      <c r="H115" t="s">
-        <v>85</v>
-      </c>
-      <c r="I115">
-        <v>4.377808891459813</v>
-      </c>
-      <c r="J115" t="s">
-        <v>85</v>
-      </c>
-      <c r="K115">
-        <v>31707.01053121293</v>
-      </c>
-    </row>
-    <row r="116" spans="8:11">
-      <c r="H116" t="s">
-        <v>86</v>
-      </c>
-      <c r="I116">
-        <v>0</v>
-      </c>
-      <c r="J116" t="s">
-        <v>86</v>
-      </c>
-      <c r="K116">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="117" spans="8:11">
-      <c r="H117" t="s">
-        <v>87</v>
-      </c>
-      <c r="I117">
-        <v>3.046954988456029</v>
-      </c>
-      <c r="J117" t="s">
-        <v>87</v>
-      </c>
-      <c r="K117">
-        <v>32570.898152461</v>
-      </c>
-    </row>
-    <row r="118" spans="8:11">
-      <c r="H118" t="s">
-        <v>104</v>
-      </c>
-      <c r="I118">
-        <v>5.043235842961704</v>
-      </c>
-      <c r="J118" t="s">
-        <v>104</v>
-      </c>
-      <c r="K118">
-        <v>31275.0667205889</v>
-      </c>
-    </row>
-    <row r="119" spans="8:11">
-      <c r="H119" t="s">
-        <v>88</v>
-      </c>
-      <c r="I119">
-        <v>0</v>
-      </c>
-      <c r="J119" t="s">
-        <v>88</v>
-      </c>
-      <c r="K119">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="120" spans="8:11">
-      <c r="H120" t="s">
-        <v>89</v>
-      </c>
-      <c r="I120">
-        <v>4.377808891459813</v>
-      </c>
-      <c r="J120" t="s">
-        <v>89</v>
-      </c>
-      <c r="K120">
-        <v>31707.01053121293</v>
-      </c>
-    </row>
-    <row r="121" spans="8:11">
-      <c r="H121" t="s">
-        <v>105</v>
-      </c>
-      <c r="I121">
-        <v>0</v>
-      </c>
-      <c r="J121" t="s">
-        <v>105</v>
-      </c>
-      <c r="K121">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="122" spans="8:11">
-      <c r="H122" t="s">
-        <v>106</v>
-      </c>
-      <c r="I122">
-        <v>0</v>
-      </c>
-      <c r="J122" t="s">
-        <v>106</v>
-      </c>
-      <c r="K122">
-        <v>11802.09647898104</v>
-      </c>
-    </row>
-    <row r="123" spans="8:11">
-      <c r="H123" t="s">
-        <v>107</v>
-      </c>
-      <c r="I123">
-        <v>1.576011200925532</v>
-      </c>
-      <c r="J123" t="s">
-        <v>107</v>
-      </c>
-      <c r="K123">
-        <v>35985.58908779966</v>
-      </c>
-    </row>
-    <row r="124" spans="8:11">
-      <c r="H124" t="s">
-        <v>108</v>
-      </c>
-      <c r="I124">
-        <v>4.976288044545763</v>
-      </c>
-      <c r="J124" t="s">
-        <v>108</v>
-      </c>
-      <c r="K124">
-        <v>49762.88044545763</v>
       </c>
     </row>
   </sheetData>

--- a/DownloadDataForDK/ModelData/Final_Dataset/GeneratorsVariables.xlsx
+++ b/DownloadDataForDK/ModelData/Final_Dataset/GeneratorsVariables.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="503" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="502" uniqueCount="121">
   <si>
     <t>FuelMix/id</t>
   </si>
@@ -272,9 +272,6 @@
   </si>
   <si>
     <t>Waste</t>
-  </si>
-  <si>
-    <t>inf</t>
   </si>
   <si>
     <t>DK2_SmallDecentral_BP_Oil</t>
@@ -924,7 +921,7 @@
         <v>598.211</v>
       </c>
       <c r="F5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G5">
         <v>7.355</v>
@@ -1065,7 +1062,7 @@
         <v>18871.99865918949</v>
       </c>
       <c r="L8" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="M8">
         <v>-10</v>
@@ -1088,25 +1085,25 @@
         <v>13.281</v>
       </c>
       <c r="F9" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G9">
         <v>2</v>
       </c>
       <c r="H9" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="M9">
         <v>-0.2808402594568861</v>
@@ -1129,7 +1126,7 @@
         <v>340.864</v>
       </c>
       <c r="F10" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G10">
         <v>100.826</v>
@@ -1147,7 +1144,7 @@
         <v>41780.64064438807</v>
       </c>
       <c r="L10" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="M10">
         <v>-0.2471153414447986</v>
@@ -1170,7 +1167,7 @@
         <v>0.195</v>
       </c>
       <c r="F11" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G11">
         <v>44.546</v>
@@ -1188,7 +1185,7 @@
         <v>146939.6312029963</v>
       </c>
       <c r="L11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M11">
         <v>-1</v>
@@ -1211,7 +1208,7 @@
         <v>34.192</v>
       </c>
       <c r="F12" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G12">
         <v>560.42</v>
@@ -1252,7 +1249,7 @@
         <v>40.033</v>
       </c>
       <c r="F13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G13">
         <v>248.8</v>
@@ -1293,7 +1290,7 @@
         <v>9.721</v>
       </c>
       <c r="F14" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G14">
         <v>4.1</v>
@@ -1340,10 +1337,10 @@
         <v>0.5</v>
       </c>
       <c r="H15" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J15" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="L15" t="s">
         <v>34</v>
@@ -1375,13 +1372,13 @@
         <v>1.61</v>
       </c>
       <c r="H16" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I16">
         <v>2.300976353351277</v>
       </c>
       <c r="J16" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="K16">
         <v>2101.34826790071</v>
@@ -1416,19 +1413,19 @@
         <v>545.326</v>
       </c>
       <c r="H17" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I17">
         <v>2.300976353351277</v>
       </c>
       <c r="J17" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="K17">
         <v>2101.34826790071</v>
       </c>
       <c r="L17" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="M17">
         <v>-10</v>
@@ -1451,19 +1448,19 @@
         <v>5.35</v>
       </c>
       <c r="H18" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I18">
         <v>0.4903145958434989</v>
       </c>
       <c r="J18" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K18">
         <v>1110.212334874208</v>
       </c>
       <c r="L18" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="M18">
         <v>-0.3113682161510096</v>
@@ -1486,19 +1483,19 @@
         <v>896.681</v>
       </c>
       <c r="H19" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="M19">
         <v>-0.1848692749860931</v>
@@ -1521,19 +1518,19 @@
         <v>355.433</v>
       </c>
       <c r="H20" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="K20">
         <v>63.66022069579798</v>
       </c>
       <c r="L20" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="M20">
         <v>-1</v>
@@ -1585,7 +1582,7 @@
         <v>1.150943396226415</v>
       </c>
       <c r="F22" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G22">
         <v>7.8</v>
@@ -1620,7 +1617,7 @@
         <v>20</v>
       </c>
       <c r="F23" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G23">
         <v>8.300000000000001</v>
@@ -1655,7 +1652,7 @@
         <v>0.9385964912280701</v>
       </c>
       <c r="F24" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G24">
         <v>72.949</v>
@@ -1690,7 +1687,7 @@
         <v>8.126213592233009</v>
       </c>
       <c r="F25" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G25">
         <v>10.786</v>
@@ -1725,7 +1722,7 @@
         <v>1.857142857142857</v>
       </c>
       <c r="F26" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G26">
         <v>192.3</v>
@@ -1743,7 +1740,7 @@
         <v>0</v>
       </c>
       <c r="L26" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="M26">
         <v>-10</v>
@@ -1760,7 +1757,7 @@
         <v>2.567375886524823</v>
       </c>
       <c r="F27" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G27">
         <v>14.5</v>
@@ -1778,7 +1775,7 @@
         <v>1908.724676676478</v>
       </c>
       <c r="L27" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="M27">
         <v>-0.2929720248650695</v>
@@ -1795,7 +1792,7 @@
         <v>0.5757575757575757</v>
       </c>
       <c r="F28" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="G28">
         <v>139</v>
@@ -1813,7 +1810,7 @@
         <v>18871.99865918949</v>
       </c>
       <c r="L28" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="M28">
         <v>-0.2080392391434382</v>
@@ -1854,7 +1851,7 @@
         <v>41780.64064438807</v>
       </c>
       <c r="L29" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="M29">
         <v>-1</v>
@@ -2006,10 +2003,10 @@
         <v>1308.327</v>
       </c>
       <c r="H33" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="J33" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="L33" t="s">
         <v>59</v>
@@ -2041,13 +2038,13 @@
         <v>1.264</v>
       </c>
       <c r="H34" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="I34">
         <v>2.663131119234357</v>
       </c>
       <c r="J34" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="K34">
         <v>14919.57270209504</v>
@@ -2082,19 +2079,19 @@
         <v>456.711</v>
       </c>
       <c r="H35" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="I35">
         <v>2.300976353351277</v>
       </c>
       <c r="J35" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="K35">
         <v>2101.34826790071</v>
       </c>
       <c r="L35" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="M35">
         <v>-0.2901974951830443</v>
@@ -2123,19 +2120,19 @@
         <v>1.102</v>
       </c>
       <c r="H36" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="I36">
         <v>2.300976353351277</v>
       </c>
       <c r="J36" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="K36">
         <v>2101.34826790071</v>
       </c>
       <c r="L36" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="M36">
         <v>-0.1658761528326746</v>
@@ -2164,19 +2161,19 @@
         <v>6.284</v>
       </c>
       <c r="H37" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="I37">
         <v>0.4903145958434989</v>
       </c>
       <c r="J37" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="K37">
         <v>1110.212334874208</v>
       </c>
       <c r="L37" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="M37">
         <v>-1</v>
@@ -2199,19 +2196,19 @@
         <v>13.327</v>
       </c>
       <c r="F38" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G38">
         <v>1</v>
       </c>
       <c r="H38" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="I38">
         <v>0</v>
       </c>
       <c r="J38" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="K38">
         <v>0</v>
@@ -2240,19 +2237,19 @@
         <v>21.986</v>
       </c>
       <c r="F39" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G39">
         <v>258.837</v>
       </c>
       <c r="H39" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="I39">
         <v>0</v>
       </c>
       <c r="J39" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="K39">
         <v>63.66022069579798</v>
@@ -2398,7 +2395,7 @@
         <v>0</v>
       </c>
       <c r="L43" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="M43">
         <v>0.45</v>
@@ -2433,7 +2430,7 @@
         <v>41780.64064438807</v>
       </c>
       <c r="L44" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="M44">
         <v>-0.309554234769688</v>
@@ -2450,7 +2447,7 @@
         <v>1.12</v>
       </c>
       <c r="F45" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G45">
         <v>41.52</v>
@@ -2468,7 +2465,7 @@
         <v>146939.6312029963</v>
       </c>
       <c r="L45" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="M45">
         <v>-1</v>
@@ -2485,7 +2482,7 @@
         <v>2.546153846153846</v>
       </c>
       <c r="F46" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G46">
         <v>15.18</v>
@@ -2514,7 +2511,7 @@
         <v>1.129787234042553</v>
       </c>
       <c r="F47" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="G47">
         <v>205.2</v>
@@ -2543,7 +2540,7 @@
         <v>5.588235294117647</v>
       </c>
       <c r="F48" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G48">
         <v>0.9</v>
@@ -2572,16 +2569,16 @@
         <v>1.178571428571429</v>
       </c>
       <c r="F49" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G49">
         <v>2.1</v>
       </c>
       <c r="H49" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="J49" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="50" spans="1:11">
@@ -2601,13 +2598,13 @@
         <v>1.33</v>
       </c>
       <c r="H50" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="I50">
         <v>2.300976353351277</v>
       </c>
       <c r="J50" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="K50">
         <v>2101.34826790071</v>
@@ -2630,13 +2627,13 @@
         <v>169.194</v>
       </c>
       <c r="H51" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="I51">
         <v>2.300976353351277</v>
       </c>
       <c r="J51" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="K51">
         <v>2101.34826790071</v>
@@ -2659,13 +2656,13 @@
         <v>609.367</v>
       </c>
       <c r="H52" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="I52">
         <v>0.4903145958434989</v>
       </c>
       <c r="J52" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="K52">
         <v>1110.212334874208</v>
@@ -2688,13 +2685,13 @@
         <v>57.83</v>
       </c>
       <c r="H53" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="I53">
         <v>0</v>
       </c>
       <c r="J53" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="K53">
         <v>0</v>
@@ -2717,13 +2714,13 @@
         <v>8.346</v>
       </c>
       <c r="H54" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="I54">
         <v>0</v>
       </c>
       <c r="J54" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="K54">
         <v>63.66022069579798</v>
@@ -2740,7 +2737,7 @@
         <v>2.875</v>
       </c>
       <c r="F55" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G55">
         <v>25</v>
@@ -2757,7 +2754,7 @@
         <v>1.142857142857143</v>
       </c>
       <c r="F56" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="G56">
         <v>0.9</v>
@@ -2770,11 +2767,11 @@
       <c r="B57" t="s">
         <v>84</v>
       </c>
-      <c r="C57" t="s">
-        <v>86</v>
+      <c r="C57">
+        <v>20</v>
       </c>
       <c r="F57" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="G57">
         <v>40</v>
@@ -2791,7 +2788,7 @@
         <v>1.272727272727273</v>
       </c>
       <c r="F58" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G58">
         <v>2</v>
@@ -2808,7 +2805,7 @@
         <v>6.273972602739726</v>
       </c>
       <c r="F59" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="G59">
         <v>2.88</v>
@@ -2927,7 +2924,7 @@
         <v>2.518518518518519</v>
       </c>
       <c r="F66" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G66">
         <v>67.3</v>
@@ -2956,7 +2953,7 @@
         <v>1.125</v>
       </c>
       <c r="F67" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G67">
         <v>87.3</v>
@@ -2985,7 +2982,7 @@
         <v>1.15</v>
       </c>
       <c r="F68" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G68">
         <v>19.3</v>
@@ -3011,7 +3008,7 @@
         <v>101.657</v>
       </c>
       <c r="F69" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G69">
         <v>8.359</v>
@@ -3037,13 +3034,13 @@
     </row>
     <row r="70" spans="1:13">
       <c r="D70" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E70">
         <v>0.008999999999999999</v>
       </c>
       <c r="F70" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G70">
         <v>482.13</v>
@@ -3069,7 +3066,7 @@
     </row>
     <row r="71" spans="1:13">
       <c r="F71" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G71">
         <v>76.62</v>
@@ -3087,7 +3084,7 @@
         <v>0</v>
       </c>
       <c r="L71" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="M71">
         <v>-0.29412</v>
@@ -3095,7 +3092,7 @@
     </row>
     <row r="72" spans="1:13">
       <c r="F72" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="G72">
         <v>780.0309999999999</v>
@@ -3113,7 +3110,7 @@
         <v>40675.09797233142</v>
       </c>
       <c r="L72" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="M72">
         <v>-0.1855555555555556</v>
@@ -3139,7 +3136,7 @@
         <v>213076.714365132</v>
       </c>
       <c r="L73" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="M73">
         <v>-1</v>
@@ -3147,7 +3144,7 @@
     </row>
     <row r="74" spans="1:13">
       <c r="F74" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G74">
         <v>179.046</v>
@@ -3265,13 +3262,13 @@
     </row>
     <row r="82" spans="8:11">
       <c r="H82" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="I82">
         <v>2.300976353351277</v>
       </c>
       <c r="J82" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="K82">
         <v>2101.34826790071</v>
@@ -3279,13 +3276,13 @@
     </row>
     <row r="83" spans="8:11">
       <c r="H83" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="I83">
         <v>2.300976353351277</v>
       </c>
       <c r="J83" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="K83">
         <v>2101.34826790071</v>
@@ -3293,13 +3290,13 @@
     </row>
     <row r="84" spans="8:11">
       <c r="H84" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="I84">
         <v>0.4903145958434989</v>
       </c>
       <c r="J84" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="K84">
         <v>1110.212334874208</v>
@@ -3307,13 +3304,13 @@
     </row>
     <row r="85" spans="8:11">
       <c r="H85" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="I85">
         <v>0</v>
       </c>
       <c r="J85" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="K85">
         <v>0</v>
@@ -3321,13 +3318,13 @@
     </row>
     <row r="86" spans="8:11">
       <c r="H86" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="I86">
         <v>0</v>
       </c>
       <c r="J86" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="K86">
         <v>63.66022069579798</v>
@@ -3461,13 +3458,13 @@
     </row>
     <row r="96" spans="8:11">
       <c r="H96" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="I96">
         <v>2.300976353351277</v>
       </c>
       <c r="J96" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="K96">
         <v>2101.34826790071</v>
@@ -3475,13 +3472,13 @@
     </row>
     <row r="97" spans="8:11">
       <c r="H97" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="I97">
         <v>2.300976353351277</v>
       </c>
       <c r="J97" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="K97">
         <v>2101.34826790071</v>
@@ -3489,13 +3486,13 @@
     </row>
     <row r="98" spans="8:11">
       <c r="H98" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="I98">
         <v>0.4903145958434989</v>
       </c>
       <c r="J98" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="K98">
         <v>1110.212334874208</v>
@@ -3503,13 +3500,13 @@
     </row>
     <row r="99" spans="8:11">
       <c r="H99" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="I99">
         <v>0</v>
       </c>
       <c r="J99" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="K99">
         <v>0</v>
@@ -3517,13 +3514,13 @@
     </row>
     <row r="100" spans="8:11">
       <c r="H100" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="I100">
         <v>0</v>
       </c>
       <c r="J100" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="K100">
         <v>63.66022069579798</v>
@@ -3643,13 +3640,13 @@
     </row>
     <row r="109" spans="8:11">
       <c r="H109" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="I109">
         <v>11.02137867397912</v>
       </c>
       <c r="J109" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="K109">
         <v>146939.6312029963</v>
@@ -3671,13 +3668,13 @@
     </row>
     <row r="111" spans="8:11">
       <c r="H111" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="I111">
         <v>2.300976353351277</v>
       </c>
       <c r="J111" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="K111">
         <v>2101.34826790071</v>
@@ -3685,13 +3682,13 @@
     </row>
     <row r="112" spans="8:11">
       <c r="H112" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="I112">
         <v>0.4903145958434989</v>
       </c>
       <c r="J112" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="K112">
         <v>1110.212334874208</v>
@@ -3699,13 +3696,13 @@
     </row>
     <row r="113" spans="8:11">
       <c r="H113" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="I113">
         <v>0</v>
       </c>
       <c r="J113" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="K113">
         <v>0</v>
@@ -3713,13 +3710,13 @@
     </row>
     <row r="114" spans="8:11">
       <c r="H114" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="I114">
         <v>0</v>
       </c>
       <c r="J114" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="K114">
         <v>63.66022069579798</v>

--- a/DownloadDataForDK/ModelData/Final_Dataset/GeneratorsVariables.xlsx
+++ b/DownloadDataForDK/ModelData/Final_Dataset/GeneratorsVariables.xlsx
@@ -471,12 +471,12 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>id</t>
+          <t>OtherMC/id</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>OtherMC</t>
+          <t>OtherMC/OtherMC</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">

--- a/DownloadDataForDK/ModelData/Final_Dataset/GeneratorsVariables.xlsx
+++ b/DownloadDataForDK/ModelData/Final_Dataset/GeneratorsVariables.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="GeneratorsVariables" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="GeneratorsVariables" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>

--- a/DownloadDataForDK/ModelData/Final_Dataset/GeneratorsVariables.xlsx
+++ b/DownloadDataForDK/ModelData/Final_Dataset/GeneratorsVariables.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="GeneratorsVariables" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="GeneratorsVariables" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>

--- a/DownloadDataForDK/ModelData/Final_Dataset/GeneratorsVariables.xlsx
+++ b/DownloadDataForDK/ModelData/Final_Dataset/GeneratorsVariables.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M52"/>
+  <dimension ref="A1:M34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -512,7 +512,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>1.25</v>
+        <v>1.5</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -520,7 +520,7 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>12.459</v>
+        <v>72.398</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
@@ -528,7 +528,7 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>7.29</v>
+        <v>30.059</v>
       </c>
       <c r="H2" t="inlineStr">
         <is>
@@ -552,7 +552,7 @@
         </is>
       </c>
       <c r="M2" t="n">
-        <v>0.9040708221464335</v>
+        <v>0.8319027428269387</v>
       </c>
     </row>
     <row r="3">
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>2.504761904761905</v>
+        <v>2.595057034220532</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -575,7 +575,7 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>1575.299</v>
+        <v>1648.792</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
@@ -583,7 +583,7 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>9.923999999999999</v>
+        <v>33.02200000000001</v>
       </c>
       <c r="H3" t="inlineStr">
         <is>
@@ -607,7 +607,7 @@
         </is>
       </c>
       <c r="M3" t="n">
-        <v>0.5191079496755285</v>
+        <v>0.4953909906185326</v>
       </c>
     </row>
     <row r="4">
@@ -622,7 +622,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0.5666666666666668</v>
+        <v>0.6578947368421052</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -638,7 +638,7 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>305.828</v>
+        <v>2663.333</v>
       </c>
       <c r="H4" t="inlineStr">
         <is>
@@ -677,7 +677,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0.9870129870129872</v>
+        <v>1.014458272327965</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -685,15 +685,15 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>781.539</v>
+        <v>1833.323</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>id_DK_Central_BH_Natgas</t>
+          <t>id_DK_Central_IndustryH_Biomass</t>
         </is>
       </c>
       <c r="G5" t="n">
-        <v>2284.656</v>
+        <v>64.684</v>
       </c>
       <c r="H5" t="inlineStr">
         <is>
@@ -717,7 +717,7 @@
         </is>
       </c>
       <c r="M5" t="n">
-        <v>0.8853056785872065</v>
+        <v>0.8552075670435977</v>
       </c>
     </row>
     <row r="6">
@@ -732,7 +732,7 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>4.119366852886406</v>
+        <v>4.261060393258427</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -740,15 +740,15 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>53.729</v>
+        <v>75.20399999999999</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>id_DK_Central_IndustryH_Natgas</t>
+          <t>id_DK_Central_BH_Natgas</t>
         </is>
       </c>
       <c r="G6" t="n">
-        <v>7.355</v>
+        <v>5490.355</v>
       </c>
       <c r="H6" t="inlineStr">
         <is>
@@ -772,22 +772,22 @@
         </is>
       </c>
       <c r="M6" t="n">
-        <v>0.929567474048443</v>
+        <v>0.9402498030831551</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>id_DK_Central_BP_Coal</t>
+          <t>id_DK_Central_IndustryH_Biomass</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Coal</t>
+          <t>Biomass</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>2.650371944739639</v>
+        <v>0.9711538461538463</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -795,31 +795,31 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>152.13</v>
+        <v>210.999</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>id_DK_Central_BH_Oil</t>
+          <t>id_DK_Central_IndustryH_Natgas</t>
         </is>
       </c>
       <c r="G7" t="n">
-        <v>3438.842</v>
+        <v>8.619</v>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>id_DK_Central_BP_Coal</t>
+          <t>id_DK_Central_IndustryH_Biomass</t>
         </is>
       </c>
       <c r="I7" t="n">
-        <v>3.046954988456029</v>
+        <v>0</v>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>id_DK_Central_BP_Coal</t>
+          <t>id_DK_Central_IndustryH_Biomass</t>
         </is>
       </c>
       <c r="K7" t="n">
-        <v>32570.898152461</v>
+        <v>0</v>
       </c>
       <c r="L7" t="inlineStr">
         <is>
@@ -827,54 +827,54 @@
         </is>
       </c>
       <c r="M7" t="n">
-        <v>0.2170321674969613</v>
+        <v>0.2122967701559634</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>id_DK_Central_BH_Natgas</t>
+          <t>id_DK_Central_BP_Coal</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Natgas</t>
+          <t>Coal</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>1.1</v>
+        <v>2.650371944739639</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>id_DK_Decentral_BP_Biogas</t>
+          <t>id_DK_nan_CD_Biogas</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>59.939</v>
+        <v>11.174</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>id_DK_Central_IndustryH_Oil</t>
+          <t>id_DK_Central_BH_Oil</t>
         </is>
       </c>
       <c r="G8" t="n">
-        <v>52</v>
+        <v>4518.727</v>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>id_DK_Central_BH_Natgas</t>
+          <t>id_DK_Central_BP_Coal</t>
         </is>
       </c>
       <c r="I8" t="n">
-        <v>1.225786489608747</v>
+        <v>3.046954988456029</v>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>id_DK_Central_BH_Natgas</t>
+          <t>id_DK_Central_BP_Coal</t>
         </is>
       </c>
       <c r="K8" t="n">
-        <v>1908.724676676478</v>
+        <v>32570.898152461</v>
       </c>
       <c r="L8" t="inlineStr">
         <is>
@@ -888,7 +888,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>id_DK_Central_BP_Natgas</t>
+          <t>id_DK_Central_BH_Natgas</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -897,39 +897,39 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>2.629268292682927</v>
+        <v>1.019108280254777</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>id_DK_Decentral_BP_Biomass</t>
+          <t>id_DK_nan_IndustryE_Biogas</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>73.49299999999999</v>
+        <v>49.789</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>id_DK_Central_BH_Waste</t>
+          <t>id_DK_Central_IndustryH_Oil</t>
         </is>
       </c>
       <c r="G9" t="n">
-        <v>48.886</v>
+        <v>53.102</v>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>id_DK_Central_BP_Natgas</t>
+          <t>id_DK_Central_BH_Natgas</t>
         </is>
       </c>
       <c r="I9" t="n">
-        <v>6.889420392617329</v>
+        <v>1.225786489608747</v>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>id_DK_Central_BP_Natgas</t>
+          <t>id_DK_Central_BH_Natgas</t>
         </is>
       </c>
       <c r="K9" t="n">
-        <v>18871.99865918949</v>
+        <v>1908.724676676478</v>
       </c>
       <c r="L9" t="inlineStr">
         <is>
@@ -937,54 +937,54 @@
         </is>
       </c>
       <c r="M9" t="n">
-        <v>-0.2835696120719935</v>
+        <v>-0.2949992232077283</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>id_DK_Central_BH_Oil</t>
+          <t>id_DK_Central_BP_Natgas</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Oil</t>
+          <t>Natgas</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>1.124457308248915</v>
+        <v>2.489051094890511</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>id_DK_Decentral_BP_Natgas</t>
+          <t>id_DK_nan_IndustryE_Biomass</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>1051.784</v>
+        <v>1.781</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>id_DK_Central_EP</t>
+          <t>id_DK_Central_BH_Waste</t>
         </is>
       </c>
       <c r="G10" t="n">
-        <v>2</v>
+        <v>99.54900000000001</v>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>id_DK_Central_IndustryH_Natgas</t>
+          <t>id_DK_Central_BP_Natgas</t>
         </is>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>6.889420392617329</v>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>id_DK_Central_IndustryH_Natgas</t>
+          <t>id_DK_Central_BP_Natgas</t>
         </is>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>18871.99865918949</v>
       </c>
       <c r="L10" t="inlineStr">
         <is>
@@ -992,54 +992,54 @@
         </is>
       </c>
       <c r="M10" t="n">
-        <v>-0.2264675350768509</v>
+        <v>-0.2184503140238934</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>id_DK_Central_BP_Oil</t>
+          <t>id_DK_Central_IndustryH_Natgas</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Oil</t>
+          <t>Natgas</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>3.292682926829269</v>
+        <v>1</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>id_DK_Decentral_BP_Oil</t>
+          <t>id_DK_nan_CD_Coal</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>21.475</v>
+        <v>21.34</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>id_DK_Central_HPstandard</t>
+          <t>id_DK_Central_EP</t>
         </is>
       </c>
       <c r="G11" t="n">
-        <v>142.346</v>
+        <v>10.8</v>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>id_DK_Central_BH_Oil</t>
+          <t>id_DK_Central_IndustryH_Natgas</t>
         </is>
       </c>
       <c r="I11" t="n">
-        <v>2.715967258535468</v>
+        <v>0</v>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>id_DK_Central_BH_Oil</t>
+          <t>id_DK_Central_IndustryH_Natgas</t>
         </is>
       </c>
       <c r="K11" t="n">
-        <v>41780.64064438806</v>
+        <v>0</v>
       </c>
       <c r="L11" t="inlineStr">
         <is>
@@ -1053,7 +1053,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>id_DK_Central_IndustryH_Oil</t>
+          <t>id_DK_Central_BH_Oil</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -1062,261 +1062,243 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>0.4929577464788733</v>
+        <v>1.127044025157233</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>id_DK_Decentral_BP_Waste</t>
+          <t>id_DK_nan_CD_Natgas</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>58.869</v>
+        <v>124.224</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>id_DK_Central_HPsurplusheat</t>
+          <t>id_DK_Central_GT</t>
         </is>
       </c>
       <c r="G12" t="n">
-        <v>59.726</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>id_DK_Central_BP_Oil</t>
+          <t>id_DK_Central_BH_Oil</t>
         </is>
       </c>
       <c r="I12" t="n">
-        <v>10.96583255687736</v>
+        <v>2.715967258535468</v>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>id_DK_Central_BP_Oil</t>
+          <t>id_DK_Central_BH_Oil</t>
         </is>
       </c>
       <c r="K12" t="n">
-        <v>142067.5178610349</v>
-      </c>
-      <c r="L12" t="inlineStr">
-        <is>
-          <t>id_DK_Decentral_BP_Biogas</t>
-        </is>
-      </c>
-      <c r="M12" t="n">
-        <v>0.8183245501460831</v>
-      </c>
+        <v>41780.64064438806</v>
+      </c>
+      <c r="L12" t="inlineStr"/>
+      <c r="M12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>id_DK_Central_BH_Waste</t>
+          <t>id_DK_Central_BP_Oil</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Waste</t>
+          <t>Oil</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>1.04739336492891</v>
+        <v>3.369565217391304</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>id_DK_nan_CD_Biogas</t>
+          <t>id_DK_nan_IndustryE_Natgas</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>11.174</v>
+        <v>123.332</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>id_DK_Central_IH</t>
+          <t>id_DK_Central_HPstandard</t>
         </is>
       </c>
       <c r="G13" t="n">
-        <v>765.6199999999999</v>
+        <v>566.432</v>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>id_DK_Central_IndustryH_Oil</t>
+          <t>id_DK_Central_BP_Oil</t>
         </is>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>10.17394480003523</v>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>id_DK_Central_IndustryH_Oil</t>
+          <t>id_DK_Central_BP_Oil</t>
         </is>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
-      </c>
-      <c r="L13" t="inlineStr">
-        <is>
-          <t>id_DK_Decentral_BP_Biomass</t>
-        </is>
-      </c>
-      <c r="M13" t="n">
-        <v>0.2502852161001509</v>
-      </c>
+        <v>131117.8558901775</v>
+      </c>
+      <c r="L13" t="inlineStr"/>
+      <c r="M13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>id_DK_Central_BP_Waste</t>
+          <t>id_DK_Central_IndustryH_Oil</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Waste</t>
+          <t>Oil</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>6.291200000000001</v>
+        <v>0.5000000000000001</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>id_DK_nan_IndustryE_Biogas</t>
+          <t>id_DK_nan_CD_Oil</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>49.789</v>
+        <v>928.3820000000001</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>id_DK_Central_IndustryH</t>
+          <t>id_DK_Central_HPsurplusheat</t>
         </is>
       </c>
       <c r="G14" t="n">
-        <v>249.7</v>
+        <v>79.771</v>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>id_DK_Central_BH_Waste</t>
+          <t>id_DK_Central_IndustryH_Oil</t>
         </is>
       </c>
       <c r="I14" t="n">
-        <v>5.883910102560225</v>
+        <v>0</v>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>id_DK_Central_BH_Waste</t>
+          <t>id_DK_Central_IndustryH_Oil</t>
         </is>
       </c>
       <c r="K14" t="n">
-        <v>82758.0992841563</v>
-      </c>
-      <c r="L14" t="inlineStr">
-        <is>
-          <t>id_DK_Decentral_BP_Natgas</t>
-        </is>
-      </c>
-      <c r="M14" t="n">
-        <v>0.8341355209302362</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="L14" t="inlineStr"/>
+      <c r="M14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>id_DK_Decentral_BH_Biogas</t>
+          <t>id_DK_Central_BH_Waste</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Biogas</t>
+          <t>Waste</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>1.75</v>
+        <v>1.035805626598465</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>id_DK_nan_IndustryE_Biomass</t>
+          <t>id_DK_nan_IndustryE_Oil</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>1.781</v>
+        <v>27.331</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>id_DK_Central_SH</t>
+          <t>id_DK_Central_IH</t>
         </is>
       </c>
       <c r="G15" t="n">
-        <v>6.199999999999999</v>
+        <v>1567.35</v>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>id_DK_Central_BP_Waste</t>
+          <t>id_DK_Central_BH_Waste</t>
         </is>
       </c>
       <c r="I15" t="n">
-        <v>27.21090470736225</v>
+        <v>5.883910102560225</v>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>id_DK_Central_BP_Waste</t>
+          <t>id_DK_Central_BH_Waste</t>
         </is>
       </c>
       <c r="K15" t="n">
-        <v>281317.9993652075</v>
-      </c>
-      <c r="L15" t="inlineStr">
-        <is>
-          <t>id_DK_Decentral_BP_Oil</t>
-        </is>
-      </c>
-      <c r="M15" t="n">
-        <v>0.9680836676734437</v>
-      </c>
+        <v>82758.0992841563</v>
+      </c>
+      <c r="L15" t="inlineStr"/>
+      <c r="M15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>id_DK_Decentral_BP_Biogas</t>
+          <t>id_DK_Central_BP_Waste</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Biogas</t>
+          <t>Waste</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>2.617577197149644</v>
+        <v>6.546302050963331</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>id_DK_nan_CD_Coal</t>
+          <t>id_DK_nan_PV</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>21.34</v>
+        <v>3910.802</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>id_DK_Decentral_BH_Biogas</t>
+          <t>id_DK_Central_IndustryH</t>
         </is>
       </c>
       <c r="G16" t="n">
-        <v>22.769</v>
-      </c>
-      <c r="H16" t="inlineStr"/>
-      <c r="I16" t="inlineStr"/>
-      <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr">
-        <is>
-          <t>id_DK_Decentral_BP_Waste</t>
-        </is>
-      </c>
-      <c r="M16" t="n">
-        <v>0.2009654150636156</v>
-      </c>
+        <v>362.12</v>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>id_DK_Central_BP_Waste</t>
+        </is>
+      </c>
+      <c r="I16" t="n">
+        <v>27.21090470736225</v>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>id_DK_Central_BP_Waste</t>
+        </is>
+      </c>
+      <c r="K16" t="n">
+        <v>281317.9993652075</v>
+      </c>
+      <c r="L16" t="inlineStr"/>
+      <c r="M16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>id_DK_Decentral_IndustryH_Biogas</t>
+          <t>id_DK_nan_CD_Biogas</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -1325,247 +1307,169 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>0.7173913043478262</v>
+        <v>2.846153846153846</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>id_DK_nan_CD_Natgas</t>
+          <t>id_DK_nan_ROR</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>124.224</v>
+        <v>6.894</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>id_DK_Decentral_IndustryH_Biogas</t>
+          <t>id_DK_Central_SH</t>
         </is>
       </c>
       <c r="G17" t="n">
-        <v>23.098</v>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>id_DK_Central_HPstandard</t>
-        </is>
-      </c>
-      <c r="I17" t="n">
-        <v>2.300976353351277</v>
-      </c>
-      <c r="J17" t="inlineStr">
-        <is>
-          <t>id_DK_Central_HPstandard</t>
-        </is>
-      </c>
-      <c r="K17" t="n">
-        <v>2101.34826790071</v>
-      </c>
-      <c r="L17" t="inlineStr">
-        <is>
-          <t>id_DK_Decentral_EP</t>
-        </is>
-      </c>
-      <c r="M17" t="n">
-        <v>-10</v>
-      </c>
+        <v>1107.157</v>
+      </c>
+      <c r="H17" t="inlineStr"/>
+      <c r="I17" t="inlineStr"/>
+      <c r="J17" t="inlineStr"/>
+      <c r="K17" t="inlineStr"/>
+      <c r="L17" t="inlineStr"/>
+      <c r="M17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>id_DK_Decentral_BH_Biomass</t>
+          <t>id_DK_nan_IndustryE_Biogas</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Biomass</t>
+          <t>Biogas</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>1.01746192893401</v>
+        <v>2.110204081632653</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>id_DK_nan_IndustryE_Natgas</t>
+          <t>id_DK_nan_WL</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>123.332</v>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>id_DK_Decentral_BH_Biomass</t>
-        </is>
-      </c>
-      <c r="G18" t="n">
-        <v>2357.505</v>
-      </c>
+        <v>4856.446</v>
+      </c>
+      <c r="F18" t="inlineStr"/>
+      <c r="G18" t="inlineStr"/>
       <c r="H18" t="inlineStr">
         <is>
-          <t>id_DK_Central_HPsurplusheat</t>
+          <t>id_DK_Central_GT</t>
         </is>
       </c>
       <c r="I18" t="n">
-        <v>2.300976353351277</v>
+        <v>2.663131119234357</v>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>id_DK_Central_HPsurplusheat</t>
+          <t>id_DK_Central_GT</t>
         </is>
       </c>
       <c r="K18" t="n">
-        <v>2101.34826790071</v>
-      </c>
-      <c r="L18" t="inlineStr">
-        <is>
-          <t>id_DK_Decentral_HPstandard</t>
-        </is>
-      </c>
-      <c r="M18" t="n">
-        <v>-0.2988356135312177</v>
-      </c>
+        <v>14919.57270209504</v>
+      </c>
+      <c r="L18" t="inlineStr"/>
+      <c r="M18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>id_DK_Decentral_BP_Biomass</t>
+          <t>id_DK_nan_CD_Coal</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Biomass</t>
+          <t>Coal</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>6.595092024539877</v>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>id_DK_nan_CD_Oil</t>
-        </is>
-      </c>
-      <c r="E19" t="n">
-        <v>928.3820000000001</v>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>id_DK_Decentral_IndustryH_Biomass</t>
-        </is>
-      </c>
-      <c r="G19" t="n">
-        <v>64.684</v>
-      </c>
+        <v>3.210526315789474</v>
+      </c>
+      <c r="D19" t="inlineStr"/>
+      <c r="E19" t="inlineStr"/>
+      <c r="F19" t="inlineStr"/>
+      <c r="G19" t="inlineStr"/>
       <c r="H19" t="inlineStr">
         <is>
-          <t>id_DK_Central_IH</t>
+          <t>id_DK_Central_HPsurplusheat</t>
         </is>
       </c>
       <c r="I19" t="n">
-        <v>0.4903145958434989</v>
+        <v>2.300976353351277</v>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>id_DK_Central_IH</t>
+          <t>id_DK_Central_HPsurplusheat</t>
         </is>
       </c>
       <c r="K19" t="n">
-        <v>1110.212334874208</v>
-      </c>
-      <c r="L19" t="inlineStr">
-        <is>
-          <t>id_DK_Decentral_HPsurplusheat</t>
-        </is>
-      </c>
-      <c r="M19" t="n">
-        <v>-0.1945622349713146</v>
-      </c>
+        <v>2101.34826790071</v>
+      </c>
+      <c r="L19" t="inlineStr"/>
+      <c r="M19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>id_DK_Decentral_IndustryH_Biomass</t>
+          <t>id_DK_nan_IndustryE_Natgas</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Biomass</t>
+          <t>Natgas</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>0.9711538461538463</v>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>id_DK_nan_IndustryE_Oil</t>
-        </is>
-      </c>
-      <c r="E20" t="n">
-        <v>27.331</v>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>id_DK_Decentral_BH_Natgas</t>
-        </is>
-      </c>
-      <c r="G20" t="n">
-        <v>3205.699</v>
-      </c>
+        <v>2.452631578947368</v>
+      </c>
+      <c r="D20" t="inlineStr"/>
+      <c r="E20" t="inlineStr"/>
+      <c r="F20" t="inlineStr"/>
+      <c r="G20" t="inlineStr"/>
       <c r="H20" t="inlineStr">
         <is>
-          <t>id_DK_Central_IndustryH</t>
+          <t>id_DK_Central_IH</t>
         </is>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>0.4903145958434989</v>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>id_DK_Central_IndustryH</t>
+          <t>id_DK_Central_IH</t>
         </is>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
-      </c>
-      <c r="L20" t="inlineStr">
-        <is>
-          <t>id_DK_Decentral_IH</t>
-        </is>
-      </c>
-      <c r="M20" t="n">
-        <v>-1</v>
-      </c>
+        <v>1110.212334874208</v>
+      </c>
+      <c r="L20" t="inlineStr"/>
+      <c r="M20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>id_DK_Decentral_BH_Natgas</t>
+          <t>id_DK_nan_CD_Oil</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Natgas</t>
+          <t>Oil</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>1.013605442176871</v>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>id_DK_nan_PV</t>
-        </is>
-      </c>
-      <c r="E21" t="n">
-        <v>3910.802</v>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>id_DK_Decentral_IndustryH_Natgas</t>
-        </is>
-      </c>
-      <c r="G21" t="n">
-        <v>1.264</v>
-      </c>
+        <v>2.6</v>
+      </c>
+      <c r="D21" t="inlineStr"/>
+      <c r="E21" t="inlineStr"/>
+      <c r="F21" t="inlineStr"/>
+      <c r="G21" t="inlineStr"/>
       <c r="H21" t="inlineStr">
         <is>
-          <t>id_DK_Central_SH</t>
+          <t>id_DK_Central_IndustryH</t>
         </is>
       </c>
       <c r="I21" t="n">
@@ -1573,11 +1477,11 @@
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>id_DK_Central_SH</t>
+          <t>id_DK_Central_IndustryH</t>
         </is>
       </c>
       <c r="K21" t="n">
-        <v>63.66022069579798</v>
+        <v>0</v>
       </c>
       <c r="L21" t="inlineStr"/>
       <c r="M21" t="inlineStr"/>
@@ -1585,466 +1489,300 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>id_DK_Decentral_BP_Natgas</t>
+          <t>id_DK_nan_IndustryE_Oil</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Natgas</t>
+          <t>Oil</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>2.405247813411079</v>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>id_DK_nan_ROR</t>
-        </is>
-      </c>
-      <c r="E22" t="n">
-        <v>6.894</v>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>id_DK_Decentral_BH_Oil</t>
-        </is>
-      </c>
-      <c r="G22" t="n">
-        <v>1079.885</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="D22" t="inlineStr"/>
+      <c r="E22" t="inlineStr"/>
+      <c r="F22" t="inlineStr"/>
+      <c r="G22" t="inlineStr"/>
       <c r="H22" t="inlineStr">
         <is>
-          <t>id_DK_Decentral_BH_Biogas</t>
+          <t>id_DK_Central_SH</t>
         </is>
       </c>
       <c r="I22" t="n">
-        <v>2.715967258535468</v>
+        <v>0</v>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>id_DK_Decentral_BH_Biogas</t>
+          <t>id_DK_Central_SH</t>
         </is>
       </c>
       <c r="K22" t="n">
-        <v>41780.64064438806</v>
+        <v>63.66022069579798</v>
       </c>
       <c r="L22" t="inlineStr"/>
       <c r="M22" t="inlineStr"/>
     </row>
     <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>id_DK_Decentral_IndustryH_Natgas</t>
-        </is>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>Natgas</t>
-        </is>
-      </c>
-      <c r="C23" t="n">
-        <v>1</v>
-      </c>
+      <c r="A23" t="inlineStr"/>
+      <c r="B23" t="inlineStr"/>
+      <c r="C23" t="inlineStr"/>
       <c r="D23" t="inlineStr">
         <is>
-          <t>id_DK_nan_WL</t>
+          <t>id_DK_nan_WS</t>
         </is>
       </c>
       <c r="E23" t="n">
-        <v>4856.446</v>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>id_DK_Decentral_IndustryH_Oil</t>
-        </is>
-      </c>
-      <c r="G23" t="n">
-        <v>1.102</v>
-      </c>
+        <v>2655.6</v>
+      </c>
+      <c r="F23" t="inlineStr"/>
+      <c r="G23" t="inlineStr"/>
       <c r="H23" t="inlineStr">
         <is>
-          <t>id_DK_Decentral_BP_Biogas</t>
+          <t>id_DK_Central_HPstandard</t>
         </is>
       </c>
       <c r="I23" t="n">
-        <v>9.280954849894803</v>
+        <v>2.300976353351277</v>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>id_DK_Decentral_BP_Biogas</t>
+          <t>id_DK_Central_HPstandard</t>
         </is>
       </c>
       <c r="K23" t="n">
-        <v>109751.6689088975</v>
+        <v>2101.34826790071</v>
       </c>
       <c r="L23" t="inlineStr"/>
       <c r="M23" t="inlineStr"/>
     </row>
     <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>id_DK_Decentral_BH_Oil</t>
-        </is>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>Oil</t>
-        </is>
-      </c>
-      <c r="C24" t="n">
-        <v>1.144230769230769</v>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>id_DK_nan_WS</t>
-        </is>
-      </c>
-      <c r="E24" t="n">
-        <v>2655.6</v>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>id_DK_Decentral_BH_Waste</t>
-        </is>
-      </c>
-      <c r="G24" t="n">
-        <v>50.663</v>
-      </c>
+      <c r="A24" t="inlineStr"/>
+      <c r="B24" t="inlineStr"/>
+      <c r="C24" t="inlineStr"/>
+      <c r="D24" t="inlineStr"/>
+      <c r="E24" t="inlineStr"/>
+      <c r="F24" t="inlineStr"/>
+      <c r="G24" t="inlineStr"/>
       <c r="H24" t="inlineStr">
         <is>
-          <t>id_DK_Decentral_IndustryH_Biogas</t>
+          <t>id_DK_nan_CD_Biogas</t>
         </is>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>4.045095415708866</v>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>id_DK_Decentral_IndustryH_Biogas</t>
+          <t>id_DK_nan_CD_Biogas</t>
         </is>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>31922.98243652495</v>
       </c>
       <c r="L24" t="inlineStr"/>
       <c r="M24" t="inlineStr"/>
     </row>
     <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>id_DK_Decentral_BP_Oil</t>
-        </is>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>Oil</t>
-        </is>
-      </c>
-      <c r="C25" t="n">
-        <v>4</v>
-      </c>
+      <c r="A25" t="inlineStr"/>
+      <c r="B25" t="inlineStr"/>
+      <c r="C25" t="inlineStr"/>
       <c r="D25" t="inlineStr"/>
       <c r="E25" t="inlineStr"/>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>id_DK_Decentral_EP</t>
-        </is>
-      </c>
-      <c r="G25" t="n">
-        <v>8.800000000000001</v>
-      </c>
+      <c r="F25" t="inlineStr"/>
+      <c r="G25" t="inlineStr"/>
       <c r="H25" t="inlineStr">
         <is>
-          <t>id_DK_Decentral_BH_Biomass</t>
+          <t>id_DK_nan_IndustryE_Biogas</t>
         </is>
       </c>
       <c r="I25" t="n">
-        <v>1.038205183437431</v>
+        <v>0</v>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>id_DK_Decentral_BH_Biomass</t>
+          <t>id_DK_nan_IndustryE_Biogas</t>
         </is>
       </c>
       <c r="K25" t="n">
-        <v>40675.09797233142</v>
+        <v>0</v>
       </c>
       <c r="L25" t="inlineStr"/>
       <c r="M25" t="inlineStr"/>
     </row>
     <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>id_DK_Decentral_IndustryH_Oil</t>
-        </is>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>Oil</t>
-        </is>
-      </c>
-      <c r="C26" t="n">
-        <v>1</v>
-      </c>
+      <c r="A26" t="inlineStr"/>
+      <c r="B26" t="inlineStr"/>
+      <c r="C26" t="inlineStr"/>
       <c r="D26" t="inlineStr"/>
       <c r="E26" t="inlineStr"/>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>id_DK_Decentral_GT</t>
-        </is>
-      </c>
-      <c r="G26" t="n">
-        <v>8.300000000000001</v>
-      </c>
+      <c r="F26" t="inlineStr"/>
+      <c r="G26" t="inlineStr"/>
       <c r="H26" t="inlineStr">
         <is>
-          <t>id_DK_Decentral_BP_Biomass</t>
+          <t>id_DK_nan_IndustryE_Biomass</t>
         </is>
       </c>
       <c r="I26" t="n">
-        <v>4.441489061845738</v>
+        <v>0</v>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>id_DK_Decentral_BP_Biomass</t>
+          <t>id_DK_nan_IndustryE_Biomass</t>
         </is>
       </c>
       <c r="K26" t="n">
-        <v>213076.714365132</v>
+        <v>0</v>
       </c>
       <c r="L26" t="inlineStr"/>
       <c r="M26" t="inlineStr"/>
     </row>
     <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>id_DK_Decentral_BH_Waste</t>
-        </is>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>Waste</t>
-        </is>
-      </c>
-      <c r="C27" t="n">
-        <v>1.022222222222222</v>
-      </c>
+      <c r="A27" t="inlineStr"/>
+      <c r="B27" t="inlineStr"/>
+      <c r="C27" t="inlineStr"/>
       <c r="D27" t="inlineStr"/>
       <c r="E27" t="inlineStr"/>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>id_DK_Decentral_HPstandard</t>
-        </is>
-      </c>
-      <c r="G27" t="n">
-        <v>424.086</v>
-      </c>
+      <c r="F27" t="inlineStr"/>
+      <c r="G27" t="inlineStr"/>
       <c r="H27" t="inlineStr">
         <is>
-          <t>id_DK_Decentral_IndustryH_Biomass</t>
+          <t>id_DK_nan_CD_Coal</t>
         </is>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>3.046954988456029</v>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>id_DK_Decentral_IndustryH_Biomass</t>
+          <t>id_DK_nan_CD_Coal</t>
         </is>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>32570.898152461</v>
       </c>
       <c r="L27" t="inlineStr"/>
       <c r="M27" t="inlineStr"/>
     </row>
     <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>id_DK_Decentral_BP_Waste</t>
-        </is>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>Waste</t>
-        </is>
-      </c>
-      <c r="C28" t="n">
-        <v>7.434540389972145</v>
-      </c>
+      <c r="A28" t="inlineStr"/>
+      <c r="B28" t="inlineStr"/>
+      <c r="C28" t="inlineStr"/>
       <c r="D28" t="inlineStr"/>
       <c r="E28" t="inlineStr"/>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>id_DK_Decentral_HPsurplusheat</t>
-        </is>
-      </c>
-      <c r="G28" t="n">
-        <v>20.045</v>
-      </c>
+      <c r="F28" t="inlineStr"/>
+      <c r="G28" t="inlineStr"/>
       <c r="H28" t="inlineStr">
         <is>
-          <t>id_DK_Decentral_BH_Natgas</t>
+          <t>id_DK_nan_CD_Natgas</t>
         </is>
       </c>
       <c r="I28" t="n">
-        <v>1.225786489608747</v>
+        <v>5.043235842961704</v>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>id_DK_Decentral_BH_Natgas</t>
+          <t>id_DK_nan_CD_Natgas</t>
         </is>
       </c>
       <c r="K28" t="n">
-        <v>1908.724676676478</v>
+        <v>31275.0667205889</v>
       </c>
       <c r="L28" t="inlineStr"/>
       <c r="M28" t="inlineStr"/>
     </row>
     <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>id_DK_nan_CD_Biogas</t>
-        </is>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>Biogas</t>
-        </is>
-      </c>
-      <c r="C29" t="n">
-        <v>2.846153846153846</v>
-      </c>
+      <c r="A29" t="inlineStr"/>
+      <c r="B29" t="inlineStr"/>
+      <c r="C29" t="inlineStr"/>
       <c r="D29" t="inlineStr"/>
       <c r="E29" t="inlineStr"/>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>id_DK_Decentral_IH</t>
-        </is>
-      </c>
-      <c r="G29" t="n">
-        <v>801.73</v>
-      </c>
+      <c r="F29" t="inlineStr"/>
+      <c r="G29" t="inlineStr"/>
       <c r="H29" t="inlineStr">
         <is>
-          <t>id_DK_Decentral_BP_Natgas</t>
+          <t>id_DK_nan_IndustryE_Natgas</t>
         </is>
       </c>
       <c r="I29" t="n">
-        <v>6.889420392617329</v>
+        <v>0</v>
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>id_DK_Decentral_BP_Natgas</t>
+          <t>id_DK_nan_IndustryE_Natgas</t>
         </is>
       </c>
       <c r="K29" t="n">
-        <v>18871.99865918949</v>
+        <v>0</v>
       </c>
       <c r="L29" t="inlineStr"/>
       <c r="M29" t="inlineStr"/>
     </row>
     <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>id_DK_nan_IndustryE_Biogas</t>
-        </is>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>Biogas</t>
-        </is>
-      </c>
-      <c r="C30" t="n">
-        <v>2.110204081632653</v>
-      </c>
+      <c r="A30" t="inlineStr"/>
+      <c r="B30" t="inlineStr"/>
+      <c r="C30" t="inlineStr"/>
       <c r="D30" t="inlineStr"/>
       <c r="E30" t="inlineStr"/>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>id_DK_Decentral_IndustryH</t>
-        </is>
-      </c>
-      <c r="G30" t="n">
-        <v>112.42</v>
-      </c>
+      <c r="F30" t="inlineStr"/>
+      <c r="G30" t="inlineStr"/>
       <c r="H30" t="inlineStr">
         <is>
-          <t>id_DK_Decentral_IndustryH_Natgas</t>
+          <t>id_DK_nan_CD_Oil</t>
         </is>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>4.045095415708866</v>
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>id_DK_Decentral_IndustryH_Natgas</t>
+          <t>id_DK_nan_CD_Oil</t>
         </is>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>31922.98243652495</v>
       </c>
       <c r="L30" t="inlineStr"/>
       <c r="M30" t="inlineStr"/>
     </row>
     <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>id_DK_nan_CD_Coal</t>
-        </is>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>Coal</t>
-        </is>
-      </c>
-      <c r="C31" t="n">
-        <v>3.210526315789474</v>
-      </c>
+      <c r="A31" t="inlineStr"/>
+      <c r="B31" t="inlineStr"/>
+      <c r="C31" t="inlineStr"/>
       <c r="D31" t="inlineStr"/>
       <c r="E31" t="inlineStr"/>
       <c r="F31" t="inlineStr"/>
       <c r="G31" t="inlineStr"/>
       <c r="H31" t="inlineStr">
         <is>
-          <t>id_DK_Decentral_BP_Oil</t>
+          <t>id_DK_nan_IndustryE_Oil</t>
         </is>
       </c>
       <c r="I31" t="n">
-        <v>10.96583255687736</v>
+        <v>0</v>
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>id_DK_Decentral_BP_Oil</t>
+          <t>id_DK_nan_IndustryE_Oil</t>
         </is>
       </c>
       <c r="K31" t="n">
-        <v>142067.5178610349</v>
+        <v>0</v>
       </c>
       <c r="L31" t="inlineStr"/>
       <c r="M31" t="inlineStr"/>
     </row>
     <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>id_DK_nan_IndustryE_Natgas</t>
-        </is>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>Natgas</t>
-        </is>
-      </c>
-      <c r="C32" t="n">
-        <v>2.452631578947368</v>
-      </c>
+      <c r="A32" t="inlineStr"/>
+      <c r="B32" t="inlineStr"/>
+      <c r="C32" t="inlineStr"/>
       <c r="D32" t="inlineStr"/>
       <c r="E32" t="inlineStr"/>
       <c r="F32" t="inlineStr"/>
       <c r="G32" t="inlineStr"/>
       <c r="H32" t="inlineStr">
         <is>
-          <t>id_DK_Decentral_IndustryH_Oil</t>
+          <t>id_DK_nan_PV</t>
         </is>
       </c>
       <c r="I32" t="n">
@@ -2052,580 +1790,68 @@
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>id_DK_Decentral_IndustryH_Oil</t>
+          <t>id_DK_nan_PV</t>
         </is>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>11802.09647898104</v>
       </c>
       <c r="L32" t="inlineStr"/>
       <c r="M32" t="inlineStr"/>
     </row>
     <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>id_DK_nan_CD_Oil</t>
-        </is>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>Oil</t>
-        </is>
-      </c>
-      <c r="C33" t="n">
-        <v>2.6</v>
-      </c>
+      <c r="A33" t="inlineStr"/>
+      <c r="B33" t="inlineStr"/>
+      <c r="C33" t="inlineStr"/>
       <c r="D33" t="inlineStr"/>
       <c r="E33" t="inlineStr"/>
       <c r="F33" t="inlineStr"/>
       <c r="G33" t="inlineStr"/>
       <c r="H33" t="inlineStr">
         <is>
-          <t>id_DK_Decentral_BH_Waste</t>
+          <t>id_DK_nan_WL</t>
         </is>
       </c>
       <c r="I33" t="n">
-        <v>5.883910102560225</v>
+        <v>1.576011200925532</v>
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>id_DK_Decentral_BH_Waste</t>
+          <t>id_DK_nan_WL</t>
         </is>
       </c>
       <c r="K33" t="n">
-        <v>82758.0992841563</v>
+        <v>35985.58908779966</v>
       </c>
       <c r="L33" t="inlineStr"/>
       <c r="M33" t="inlineStr"/>
     </row>
     <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>id_DK_nan_IndustryE_Oil</t>
-        </is>
-      </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>Oil</t>
-        </is>
-      </c>
-      <c r="C34" t="n">
-        <v>11</v>
-      </c>
+      <c r="A34" t="inlineStr"/>
+      <c r="B34" t="inlineStr"/>
+      <c r="C34" t="inlineStr"/>
       <c r="D34" t="inlineStr"/>
       <c r="E34" t="inlineStr"/>
       <c r="F34" t="inlineStr"/>
       <c r="G34" t="inlineStr"/>
       <c r="H34" t="inlineStr">
         <is>
-          <t>id_DK_Decentral_BP_Waste</t>
+          <t>id_DK_nan_WS</t>
         </is>
       </c>
       <c r="I34" t="n">
-        <v>27.21090470736225</v>
+        <v>4.976288044545763</v>
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>id_DK_Decentral_BP_Waste</t>
+          <t>id_DK_nan_WS</t>
         </is>
       </c>
       <c r="K34" t="n">
-        <v>281317.9993652075</v>
+        <v>49762.88044545763</v>
       </c>
       <c r="L34" t="inlineStr"/>
       <c r="M34" t="inlineStr"/>
-    </row>
-    <row r="35">
-      <c r="A35" t="inlineStr"/>
-      <c r="B35" t="inlineStr"/>
-      <c r="C35" t="inlineStr"/>
-      <c r="D35" t="inlineStr"/>
-      <c r="E35" t="inlineStr"/>
-      <c r="F35" t="inlineStr">
-        <is>
-          <t>id_DK_Decentral_SH</t>
-        </is>
-      </c>
-      <c r="G35" t="n">
-        <v>1100.957</v>
-      </c>
-      <c r="H35" t="inlineStr">
-        <is>
-          <t>id_DK_Decentral_BH_Oil</t>
-        </is>
-      </c>
-      <c r="I35" t="n">
-        <v>2.715967258535468</v>
-      </c>
-      <c r="J35" t="inlineStr">
-        <is>
-          <t>id_DK_Decentral_BH_Oil</t>
-        </is>
-      </c>
-      <c r="K35" t="n">
-        <v>41780.64064438806</v>
-      </c>
-      <c r="L35" t="inlineStr"/>
-      <c r="M35" t="inlineStr"/>
-    </row>
-    <row r="36">
-      <c r="A36" t="inlineStr"/>
-      <c r="B36" t="inlineStr"/>
-      <c r="C36" t="inlineStr"/>
-      <c r="D36" t="inlineStr"/>
-      <c r="E36" t="inlineStr"/>
-      <c r="F36" t="inlineStr"/>
-      <c r="G36" t="inlineStr"/>
-      <c r="H36" t="inlineStr">
-        <is>
-          <t>id_DK_Decentral_GT</t>
-        </is>
-      </c>
-      <c r="I36" t="n">
-        <v>2.663131119234357</v>
-      </c>
-      <c r="J36" t="inlineStr">
-        <is>
-          <t>id_DK_Decentral_GT</t>
-        </is>
-      </c>
-      <c r="K36" t="n">
-        <v>14919.57270209504</v>
-      </c>
-      <c r="L36" t="inlineStr"/>
-      <c r="M36" t="inlineStr"/>
-    </row>
-    <row r="37">
-      <c r="A37" t="inlineStr"/>
-      <c r="B37" t="inlineStr"/>
-      <c r="C37" t="inlineStr"/>
-      <c r="D37" t="inlineStr"/>
-      <c r="E37" t="inlineStr"/>
-      <c r="F37" t="inlineStr"/>
-      <c r="G37" t="inlineStr"/>
-      <c r="H37" t="inlineStr">
-        <is>
-          <t>id_DK_Decentral_HPstandard</t>
-        </is>
-      </c>
-      <c r="I37" t="n">
-        <v>2.300976353351277</v>
-      </c>
-      <c r="J37" t="inlineStr">
-        <is>
-          <t>id_DK_Decentral_HPstandard</t>
-        </is>
-      </c>
-      <c r="K37" t="n">
-        <v>2101.34826790071</v>
-      </c>
-      <c r="L37" t="inlineStr"/>
-      <c r="M37" t="inlineStr"/>
-    </row>
-    <row r="38">
-      <c r="A38" t="inlineStr"/>
-      <c r="B38" t="inlineStr"/>
-      <c r="C38" t="inlineStr"/>
-      <c r="D38" t="inlineStr"/>
-      <c r="E38" t="inlineStr"/>
-      <c r="F38" t="inlineStr"/>
-      <c r="G38" t="inlineStr"/>
-      <c r="H38" t="inlineStr">
-        <is>
-          <t>id_DK_Decentral_HPsurplusheat</t>
-        </is>
-      </c>
-      <c r="I38" t="n">
-        <v>2.300976353351277</v>
-      </c>
-      <c r="J38" t="inlineStr">
-        <is>
-          <t>id_DK_Decentral_HPsurplusheat</t>
-        </is>
-      </c>
-      <c r="K38" t="n">
-        <v>2101.34826790071</v>
-      </c>
-      <c r="L38" t="inlineStr"/>
-      <c r="M38" t="inlineStr"/>
-    </row>
-    <row r="39">
-      <c r="A39" t="inlineStr"/>
-      <c r="B39" t="inlineStr"/>
-      <c r="C39" t="inlineStr"/>
-      <c r="D39" t="inlineStr"/>
-      <c r="E39" t="inlineStr"/>
-      <c r="F39" t="inlineStr"/>
-      <c r="G39" t="inlineStr"/>
-      <c r="H39" t="inlineStr">
-        <is>
-          <t>id_DK_Decentral_IH</t>
-        </is>
-      </c>
-      <c r="I39" t="n">
-        <v>0.4903145958434989</v>
-      </c>
-      <c r="J39" t="inlineStr">
-        <is>
-          <t>id_DK_Decentral_IH</t>
-        </is>
-      </c>
-      <c r="K39" t="n">
-        <v>1110.212334874208</v>
-      </c>
-      <c r="L39" t="inlineStr"/>
-      <c r="M39" t="inlineStr"/>
-    </row>
-    <row r="40">
-      <c r="A40" t="inlineStr"/>
-      <c r="B40" t="inlineStr"/>
-      <c r="C40" t="inlineStr"/>
-      <c r="D40" t="inlineStr"/>
-      <c r="E40" t="inlineStr"/>
-      <c r="F40" t="inlineStr"/>
-      <c r="G40" t="inlineStr"/>
-      <c r="H40" t="inlineStr">
-        <is>
-          <t>id_DK_Decentral_IndustryH</t>
-        </is>
-      </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="inlineStr">
-        <is>
-          <t>id_DK_Decentral_IndustryH</t>
-        </is>
-      </c>
-      <c r="K40" t="n">
-        <v>0</v>
-      </c>
-      <c r="L40" t="inlineStr"/>
-      <c r="M40" t="inlineStr"/>
-    </row>
-    <row r="41">
-      <c r="A41" t="inlineStr"/>
-      <c r="B41" t="inlineStr"/>
-      <c r="C41" t="inlineStr"/>
-      <c r="D41" t="inlineStr"/>
-      <c r="E41" t="inlineStr"/>
-      <c r="F41" t="inlineStr"/>
-      <c r="G41" t="inlineStr"/>
-      <c r="H41" t="inlineStr">
-        <is>
-          <t>id_DK_Decentral_SH</t>
-        </is>
-      </c>
-      <c r="I41" t="n">
-        <v>0</v>
-      </c>
-      <c r="J41" t="inlineStr">
-        <is>
-          <t>id_DK_Decentral_SH</t>
-        </is>
-      </c>
-      <c r="K41" t="n">
-        <v>63.66022069579798</v>
-      </c>
-      <c r="L41" t="inlineStr"/>
-      <c r="M41" t="inlineStr"/>
-    </row>
-    <row r="42">
-      <c r="A42" t="inlineStr"/>
-      <c r="B42" t="inlineStr"/>
-      <c r="C42" t="inlineStr"/>
-      <c r="D42" t="inlineStr"/>
-      <c r="E42" t="inlineStr"/>
-      <c r="F42" t="inlineStr"/>
-      <c r="G42" t="inlineStr"/>
-      <c r="H42" t="inlineStr">
-        <is>
-          <t>id_DK_nan_CD_Biogas</t>
-        </is>
-      </c>
-      <c r="I42" t="n">
-        <v>4.045095415708866</v>
-      </c>
-      <c r="J42" t="inlineStr">
-        <is>
-          <t>id_DK_nan_CD_Biogas</t>
-        </is>
-      </c>
-      <c r="K42" t="n">
-        <v>31922.98243652495</v>
-      </c>
-      <c r="L42" t="inlineStr"/>
-      <c r="M42" t="inlineStr"/>
-    </row>
-    <row r="43">
-      <c r="A43" t="inlineStr"/>
-      <c r="B43" t="inlineStr"/>
-      <c r="C43" t="inlineStr"/>
-      <c r="D43" t="inlineStr"/>
-      <c r="E43" t="inlineStr"/>
-      <c r="F43" t="inlineStr"/>
-      <c r="G43" t="inlineStr"/>
-      <c r="H43" t="inlineStr">
-        <is>
-          <t>id_DK_nan_IndustryE_Biogas</t>
-        </is>
-      </c>
-      <c r="I43" t="n">
-        <v>0</v>
-      </c>
-      <c r="J43" t="inlineStr">
-        <is>
-          <t>id_DK_nan_IndustryE_Biogas</t>
-        </is>
-      </c>
-      <c r="K43" t="n">
-        <v>0</v>
-      </c>
-      <c r="L43" t="inlineStr"/>
-      <c r="M43" t="inlineStr"/>
-    </row>
-    <row r="44">
-      <c r="A44" t="inlineStr"/>
-      <c r="B44" t="inlineStr"/>
-      <c r="C44" t="inlineStr"/>
-      <c r="D44" t="inlineStr"/>
-      <c r="E44" t="inlineStr"/>
-      <c r="F44" t="inlineStr"/>
-      <c r="G44" t="inlineStr"/>
-      <c r="H44" t="inlineStr">
-        <is>
-          <t>id_DK_nan_IndustryE_Biomass</t>
-        </is>
-      </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="inlineStr">
-        <is>
-          <t>id_DK_nan_IndustryE_Biomass</t>
-        </is>
-      </c>
-      <c r="K44" t="n">
-        <v>0</v>
-      </c>
-      <c r="L44" t="inlineStr"/>
-      <c r="M44" t="inlineStr"/>
-    </row>
-    <row r="45">
-      <c r="A45" t="inlineStr"/>
-      <c r="B45" t="inlineStr"/>
-      <c r="C45" t="inlineStr"/>
-      <c r="D45" t="inlineStr"/>
-      <c r="E45" t="inlineStr"/>
-      <c r="F45" t="inlineStr"/>
-      <c r="G45" t="inlineStr"/>
-      <c r="H45" t="inlineStr">
-        <is>
-          <t>id_DK_nan_CD_Coal</t>
-        </is>
-      </c>
-      <c r="I45" t="n">
-        <v>3.046954988456029</v>
-      </c>
-      <c r="J45" t="inlineStr">
-        <is>
-          <t>id_DK_nan_CD_Coal</t>
-        </is>
-      </c>
-      <c r="K45" t="n">
-        <v>32570.898152461</v>
-      </c>
-      <c r="L45" t="inlineStr"/>
-      <c r="M45" t="inlineStr"/>
-    </row>
-    <row r="46">
-      <c r="A46" t="inlineStr"/>
-      <c r="B46" t="inlineStr"/>
-      <c r="C46" t="inlineStr"/>
-      <c r="D46" t="inlineStr"/>
-      <c r="E46" t="inlineStr"/>
-      <c r="F46" t="inlineStr"/>
-      <c r="G46" t="inlineStr"/>
-      <c r="H46" t="inlineStr">
-        <is>
-          <t>id_DK_nan_CD_Natgas</t>
-        </is>
-      </c>
-      <c r="I46" t="n">
-        <v>5.043235842961704</v>
-      </c>
-      <c r="J46" t="inlineStr">
-        <is>
-          <t>id_DK_nan_CD_Natgas</t>
-        </is>
-      </c>
-      <c r="K46" t="n">
-        <v>31275.0667205889</v>
-      </c>
-      <c r="L46" t="inlineStr"/>
-      <c r="M46" t="inlineStr"/>
-    </row>
-    <row r="47">
-      <c r="A47" t="inlineStr"/>
-      <c r="B47" t="inlineStr"/>
-      <c r="C47" t="inlineStr"/>
-      <c r="D47" t="inlineStr"/>
-      <c r="E47" t="inlineStr"/>
-      <c r="F47" t="inlineStr"/>
-      <c r="G47" t="inlineStr"/>
-      <c r="H47" t="inlineStr">
-        <is>
-          <t>id_DK_nan_IndustryE_Natgas</t>
-        </is>
-      </c>
-      <c r="I47" t="n">
-        <v>0</v>
-      </c>
-      <c r="J47" t="inlineStr">
-        <is>
-          <t>id_DK_nan_IndustryE_Natgas</t>
-        </is>
-      </c>
-      <c r="K47" t="n">
-        <v>0</v>
-      </c>
-      <c r="L47" t="inlineStr"/>
-      <c r="M47" t="inlineStr"/>
-    </row>
-    <row r="48">
-      <c r="A48" t="inlineStr"/>
-      <c r="B48" t="inlineStr"/>
-      <c r="C48" t="inlineStr"/>
-      <c r="D48" t="inlineStr"/>
-      <c r="E48" t="inlineStr"/>
-      <c r="F48" t="inlineStr"/>
-      <c r="G48" t="inlineStr"/>
-      <c r="H48" t="inlineStr">
-        <is>
-          <t>id_DK_nan_CD_Oil</t>
-        </is>
-      </c>
-      <c r="I48" t="n">
-        <v>4.045095415708866</v>
-      </c>
-      <c r="J48" t="inlineStr">
-        <is>
-          <t>id_DK_nan_CD_Oil</t>
-        </is>
-      </c>
-      <c r="K48" t="n">
-        <v>31922.98243652495</v>
-      </c>
-      <c r="L48" t="inlineStr"/>
-      <c r="M48" t="inlineStr"/>
-    </row>
-    <row r="49">
-      <c r="A49" t="inlineStr"/>
-      <c r="B49" t="inlineStr"/>
-      <c r="C49" t="inlineStr"/>
-      <c r="D49" t="inlineStr"/>
-      <c r="E49" t="inlineStr"/>
-      <c r="F49" t="inlineStr"/>
-      <c r="G49" t="inlineStr"/>
-      <c r="H49" t="inlineStr">
-        <is>
-          <t>id_DK_nan_IndustryE_Oil</t>
-        </is>
-      </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
-      <c r="J49" t="inlineStr">
-        <is>
-          <t>id_DK_nan_IndustryE_Oil</t>
-        </is>
-      </c>
-      <c r="K49" t="n">
-        <v>0</v>
-      </c>
-      <c r="L49" t="inlineStr"/>
-      <c r="M49" t="inlineStr"/>
-    </row>
-    <row r="50">
-      <c r="A50" t="inlineStr"/>
-      <c r="B50" t="inlineStr"/>
-      <c r="C50" t="inlineStr"/>
-      <c r="D50" t="inlineStr"/>
-      <c r="E50" t="inlineStr"/>
-      <c r="F50" t="inlineStr"/>
-      <c r="G50" t="inlineStr"/>
-      <c r="H50" t="inlineStr">
-        <is>
-          <t>id_DK_nan_PV</t>
-        </is>
-      </c>
-      <c r="I50" t="n">
-        <v>0</v>
-      </c>
-      <c r="J50" t="inlineStr">
-        <is>
-          <t>id_DK_nan_PV</t>
-        </is>
-      </c>
-      <c r="K50" t="n">
-        <v>11802.09647898104</v>
-      </c>
-      <c r="L50" t="inlineStr"/>
-      <c r="M50" t="inlineStr"/>
-    </row>
-    <row r="51">
-      <c r="A51" t="inlineStr"/>
-      <c r="B51" t="inlineStr"/>
-      <c r="C51" t="inlineStr"/>
-      <c r="D51" t="inlineStr"/>
-      <c r="E51" t="inlineStr"/>
-      <c r="F51" t="inlineStr"/>
-      <c r="G51" t="inlineStr"/>
-      <c r="H51" t="inlineStr">
-        <is>
-          <t>id_DK_nan_WL</t>
-        </is>
-      </c>
-      <c r="I51" t="n">
-        <v>1.576011200925532</v>
-      </c>
-      <c r="J51" t="inlineStr">
-        <is>
-          <t>id_DK_nan_WL</t>
-        </is>
-      </c>
-      <c r="K51" t="n">
-        <v>35985.58908779966</v>
-      </c>
-      <c r="L51" t="inlineStr"/>
-      <c r="M51" t="inlineStr"/>
-    </row>
-    <row r="52">
-      <c r="A52" t="inlineStr"/>
-      <c r="B52" t="inlineStr"/>
-      <c r="C52" t="inlineStr"/>
-      <c r="D52" t="inlineStr"/>
-      <c r="E52" t="inlineStr"/>
-      <c r="F52" t="inlineStr"/>
-      <c r="G52" t="inlineStr"/>
-      <c r="H52" t="inlineStr">
-        <is>
-          <t>id_DK_nan_WS</t>
-        </is>
-      </c>
-      <c r="I52" t="n">
-        <v>4.976288044545763</v>
-      </c>
-      <c r="J52" t="inlineStr">
-        <is>
-          <t>id_DK_nan_WS</t>
-        </is>
-      </c>
-      <c r="K52" t="n">
-        <v>49762.88044545763</v>
-      </c>
-      <c r="L52" t="inlineStr"/>
-      <c r="M52" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
